--- a/MMR1_cov_dk_2022.xlsx
+++ b/MMR1_cov_dk_2022.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/Library/CloudStorage/OneDrive-RoskildeUniversitet/Dokumenter/PandemiX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/Library/CloudStorage/OneDrive-RoskildeUniversitet/Dokumenter/measles-network-DK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E2AA14-901A-C547-ACA8-B085BE22AA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB4112-53BF-6C41-9D93-4C1DFB7CF4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13320" yWindow="-27340" windowWidth="22900" windowHeight="25180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dataset" sheetId="5" r:id="rId1"/>
+    <sheet name="Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="FOLK1AM" sheetId="2" r:id="rId2"/>
-    <sheet name="EPINYT87-97" sheetId="4" r:id="rId3"/>
-    <sheet name="SSI_cov98-2022" sheetId="3" r:id="rId4"/>
+    <sheet name="EPINYT87-97" sheetId="3" r:id="rId3"/>
+    <sheet name="SSI_cov98-2022" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,9 +38,39 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
+    <t>Andel vaccineret med MFR 1, F¯dselsÂr: 1998-2023</t>
+  </si>
+  <si>
+    <t>source: https://statistik.ssi.dk//sygdomsdata#!/?vaccination=11&amp;sex=3&amp;landsdel=100&amp;xaxis=Cohort&amp;yaxis=Vaccination&amp;show=Table&amp;datatype=Vaccination#!%2F%23!%2F</t>
+  </si>
+  <si>
+    <t>MFR 1</t>
+  </si>
+  <si>
+    <t>Procent</t>
+  </si>
+  <si>
+    <t>Antal givne vacciner</t>
+  </si>
+  <si>
+    <t>Kohortest¯rrelse</t>
+  </si>
+  <si>
+    <t>ÅR</t>
+  </si>
+  <si>
+    <t>% 15 mdr.</t>
+  </si>
+  <si>
+    <t>source: EPINYT</t>
+  </si>
+  <si>
     <t>Befolkningen den 1. i måneden efter område, køn, alder og tid</t>
   </si>
   <si>
+    <t>source:https://www.statistikbanken.dk/statbank5a/selectvarval/define.asp?PLanguage=0&amp;subword=tabsel&amp;MainTable=FOLK1AM&amp;PXSId=239851&amp;tablestyle=&amp;ST=SD&amp;buttons=0</t>
+  </si>
+  <si>
     <t>Enhed: Antal</t>
   </si>
   <si>
@@ -431,39 +461,12 @@
     <t>125 år</t>
   </si>
   <si>
-    <t>Kohortest¯rrelse</t>
-  </si>
-  <si>
-    <t>Antal givne vacciner</t>
-  </si>
-  <si>
-    <t>Procent</t>
-  </si>
-  <si>
-    <t>MFR 1</t>
-  </si>
-  <si>
-    <t>Andel vaccineret med MFR 1, F¯dselsÂr: 1998-2023</t>
-  </si>
-  <si>
-    <t>source: https://statistik.ssi.dk//sygdomsdata#!/?vaccination=11&amp;sex=3&amp;landsdel=100&amp;xaxis=Cohort&amp;yaxis=Vaccination&amp;show=Table&amp;datatype=Vaccination#!%2F%23!%2F</t>
-  </si>
-  <si>
-    <t>source:https://www.statistikbanken.dk/statbank5a/selectvarval/define.asp?PLanguage=0&amp;subword=tabsel&amp;MainTable=FOLK1AM&amp;PXSId=239851&amp;tablestyle=&amp;ST=SD&amp;buttons=0</t>
-  </si>
-  <si>
-    <t>ÅR</t>
-  </si>
-  <si>
-    <t>% 15 mdr.</t>
-  </si>
-  <si>
-    <t>source: EPINYT</t>
-  </si>
-  <si>
     <t>AGE</t>
   </si>
   <si>
+    <t>BIRTH YEAR</t>
+  </si>
+  <si>
     <t>POPULATION</t>
   </si>
   <si>
@@ -473,13 +476,13 @@
     <t>TOTAL VACCINATED</t>
   </si>
   <si>
-    <t>BIRTH YEAR</t>
+    <t>Vax pop:</t>
   </si>
   <si>
     <t>total pop:</t>
   </si>
   <si>
-    <t>Vax pop:</t>
+    <t xml:space="preserve">percentage  vax + immunized </t>
   </si>
   <si>
     <t>born after 1987</t>
@@ -492,28 +495,31 @@
   </si>
   <si>
     <t>percentage vax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage  vax + immunized </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -545,7 +551,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -554,29 +567,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C6473450-F911-564D-BF95-D6C91010946E}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -663,6 +695,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -697,6 +730,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,7 +754,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -731,31 +764,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -777,7 +810,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -835,7 +868,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -848,13 +881,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -872,2417 +904,2422 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E555A4D6-6AC7-E643-AE99-4A3A83539D0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1">
-        <f xml:space="preserve"> SUM(E2:E122)</f>
+      <c r="G1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="10">
+        <f>SUM(E2:E122)</f>
         <v>5631420.3599999994</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>2022</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <f>FOLK1AM!D4</f>
         <v>59155</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <f>'SSI_cov98-2022'!AA4</f>
         <v>94</v>
       </c>
-      <c r="E2">
-        <f>D2/100*C2</f>
+      <c r="E2" s="10">
+        <f t="shared" ref="E2:E33" si="0">D2/100*C2</f>
         <v>55605.7</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2">
+        <v>147</v>
+      </c>
+      <c r="H2" s="4">
         <f>SUM(C2:C122)</f>
         <v>5934002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2021</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <f>FOLK1AM!D5</f>
         <v>64097</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <f>'SSI_cov98-2022'!Z4</f>
         <v>94</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">D3/100*C3</f>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
         <v>60251.179999999993</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3">
+        <v>148</v>
+      </c>
+      <c r="H3" s="10">
         <f>H1/H2</f>
         <v>0.94900884091377102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>2020</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <f>FOLK1AM!D6</f>
         <v>62172</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <f>'SSI_cov98-2022'!Y4</f>
         <v>94</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>58441.68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>2019</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <f>FOLK1AM!D7</f>
         <v>62749</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <f>'SSI_cov98-2022'!X4</f>
         <v>94</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>58984.06</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>2018</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f>FOLK1AM!D8</f>
         <v>62912</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <f>'SSI_cov98-2022'!W4</f>
         <v>93</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>58508.160000000003</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>2017</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <f>FOLK1AM!D9</f>
         <v>62836</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <f>'SSI_cov98-2022'!V4</f>
         <v>94</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>59065.84</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7">
-        <f xml:space="preserve"> SUM(E2:E37)</f>
+        <v>150</v>
+      </c>
+      <c r="H7" s="10">
+        <f>SUM(E2:E37)</f>
         <v>2247104.36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>2016</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <f>FOLK1AM!D10</f>
         <v>63632</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <f>'SSI_cov98-2022'!U4</f>
         <v>95</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>60450.399999999994</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8">
+        <v>151</v>
+      </c>
+      <c r="H8" s="4">
         <f>SUM(C2:C37)</f>
         <v>2549686</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>2015</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <f>FOLK1AM!D11</f>
         <v>60499</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <f>'SSI_cov98-2022'!T4</f>
         <v>95</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>57474.049999999996</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9">
+        <v>152</v>
+      </c>
+      <c r="H9" s="10">
         <f>H7/H8</f>
         <v>0.88132592013291045</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>2014</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <f>FOLK1AM!D12</f>
         <v>60059</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <f>'SSI_cov98-2022'!S4</f>
         <v>94</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>56455.46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>2013</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <f>FOLK1AM!D13</f>
         <v>59599</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <f>'SSI_cov98-2022'!R4</f>
         <v>93</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>55427.07</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>2012</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <f>FOLK1AM!D14</f>
         <v>61860</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <f>'SSI_cov98-2022'!Q4</f>
         <v>92</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>56911.200000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>2011</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <f>FOLK1AM!D15</f>
         <v>63470</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <f>'SSI_cov98-2022'!P4</f>
         <v>91</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>57757.700000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>2010</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <f>FOLK1AM!D16</f>
         <v>67931</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <f>'SSI_cov98-2022'!O4</f>
         <v>90</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>61137.9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>2009</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <f>FOLK1AM!D17</f>
         <v>67291</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <f>'SSI_cov98-2022'!N4</f>
         <v>90</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>60561.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>2008</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <f>FOLK1AM!D18</f>
         <v>69758</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <f>'SSI_cov98-2022'!M4</f>
         <v>89</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>62084.62</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>2007</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <f>FOLK1AM!D19</f>
         <v>68991</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <f>'SSI_cov98-2022'!L4</f>
         <v>89</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>61401.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>2006</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <f>FOLK1AM!D20</f>
         <v>70136</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <f>'SSI_cov98-2022'!K4</f>
         <v>89</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>62421.04</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>2005</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <f>FOLK1AM!D21</f>
         <v>69299</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <f>'SSI_cov98-2022'!J4</f>
         <v>89</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>61676.11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>2004</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <f>FOLK1AM!D22</f>
         <v>69420</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <f>'SSI_cov98-2022'!I4</f>
         <v>90</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>62478</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>2003</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <f>FOLK1AM!D23</f>
         <v>69984</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <f>'SSI_cov98-2022'!H4</f>
         <v>89</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>62285.760000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>2002</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <f>FOLK1AM!D24</f>
         <v>71622</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <f>'SSI_cov98-2022'!G4</f>
         <v>87</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>62311.14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>2001</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <f>FOLK1AM!D25</f>
         <v>74269</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <f>'SSI_cov98-2022'!F4</f>
         <v>85</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>63128.65</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>2000</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <f>FOLK1AM!D26</f>
         <v>76597</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <f>'SSI_cov98-2022'!E4</f>
         <v>88</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>67405.36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>1999</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <f>FOLK1AM!D27</f>
         <v>76916</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <f>'SSI_cov98-2022'!D4</f>
         <v>88</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="10">
         <f t="shared" si="0"/>
         <v>67686.080000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>1998</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <f>FOLK1AM!D28</f>
         <v>78037</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <f>'SSI_cov98-2022'!C4</f>
         <v>86</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>67111.819999999992</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>1997</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <f>FOLK1AM!D29</f>
         <v>80561</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <f>'EPINYT87-97'!B2</f>
         <v>84</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="10">
         <f t="shared" si="0"/>
         <v>67671.239999999991</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>1996</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <f>FOLK1AM!D30</f>
         <v>80474</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <f>'EPINYT87-97'!B3</f>
         <v>85</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="10">
         <f t="shared" si="0"/>
         <v>68402.899999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>1995</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <f>FOLK1AM!D31</f>
         <v>83793</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <f>'EPINYT87-97'!B4</f>
         <v>88</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="10">
         <f t="shared" si="0"/>
         <v>73737.84</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>1994</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <f>FOLK1AM!D32</f>
         <v>83449</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <f>'EPINYT87-97'!B5</f>
         <v>88</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>73435.12</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>1993</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <f>FOLK1AM!D33</f>
         <v>81629</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <f>'EPINYT87-97'!B6</f>
         <v>81</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="10">
         <f t="shared" si="0"/>
         <v>66119.490000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>1992</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <f>FOLK1AM!D34</f>
         <v>82352</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <f>'EPINYT87-97'!B7</f>
         <v>85</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="10">
         <f t="shared" si="0"/>
         <v>69999.199999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>1991</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <f>FOLK1AM!D35</f>
         <v>79727</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <f>'EPINYT87-97'!B8</f>
         <v>86</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="10">
         <f t="shared" si="0"/>
         <v>68565.22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>1990</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <f>FOLK1AM!D36</f>
         <v>79752</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <f>'EPINYT87-97'!B9</f>
         <v>84</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
+      <c r="E34" s="10">
+        <f t="shared" ref="E34:E65" si="1">D34/100*C34</f>
         <v>66991.679999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>1989</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <f>FOLK1AM!D37</f>
         <v>77418</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <f>'EPINYT87-97'!B10</f>
         <v>80</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
+      <c r="E35" s="10">
+        <f t="shared" si="1"/>
         <v>61934.400000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>1988</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <f>FOLK1AM!D38</f>
         <v>75124</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <f>'EPINYT87-97'!B11</f>
         <v>72</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
+      <c r="E36" s="10">
+        <f t="shared" si="1"/>
         <v>54089.279999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>1987</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <f>FOLK1AM!D39</f>
         <v>72116</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <f>'EPINYT87-97'!B12</f>
         <v>82</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
+      <c r="E37" s="10">
+        <f t="shared" si="1"/>
         <v>59135.119999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>1986</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <f>FOLK1AM!D40</f>
         <v>71146</v>
       </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
+      <c r="D38" s="4">
+        <v>100</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
         <v>71146</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>1985</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <f>FOLK1AM!D41</f>
         <v>69188</v>
       </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
+      <c r="D39" s="4">
+        <v>100</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="1"/>
         <v>69188</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>1984</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <f>FOLK1AM!D42</f>
         <v>66968</v>
       </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
+      <c r="D40" s="4">
+        <v>100</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="1"/>
         <v>66968</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>1983</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <f>FOLK1AM!D43</f>
         <v>65660</v>
       </c>
-      <c r="D41">
-        <v>100</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
+      <c r="D41" s="4">
+        <v>100</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="1"/>
         <v>65660</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>1982</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <f>FOLK1AM!D44</f>
         <v>66626</v>
       </c>
-      <c r="D42">
-        <v>100</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
+      <c r="D42" s="4">
+        <v>100</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="1"/>
         <v>66626</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>1981</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <f>FOLK1AM!D45</f>
         <v>66205</v>
       </c>
-      <c r="D43">
-        <v>100</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
+      <c r="D43" s="4">
+        <v>100</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="1"/>
         <v>66205</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>1980</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <f>FOLK1AM!D46</f>
         <v>69810</v>
       </c>
-      <c r="D44">
-        <v>100</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
+      <c r="D44" s="4">
+        <v>100</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="1"/>
         <v>69810</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>1979</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <f>FOLK1AM!D47</f>
         <v>70647</v>
       </c>
-      <c r="D45">
-        <v>100</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
+      <c r="D45" s="4">
+        <v>100</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="1"/>
         <v>70647</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>1978</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <f>FOLK1AM!D48</f>
         <v>72363</v>
       </c>
-      <c r="D46">
-        <v>100</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
+      <c r="D46" s="4">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="1"/>
         <v>72363</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>1977</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <f>FOLK1AM!D49</f>
         <v>71525</v>
       </c>
-      <c r="D47">
-        <v>100</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
+      <c r="D47" s="4">
+        <v>100</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="1"/>
         <v>71525</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>1976</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <f>FOLK1AM!D50</f>
         <v>74897</v>
       </c>
-      <c r="D48">
-        <v>100</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
+      <c r="D48" s="4">
+        <v>100</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="1"/>
         <v>74897</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>1975</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <f>FOLK1AM!D51</f>
         <v>79710</v>
       </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
+      <c r="D49" s="4">
+        <v>100</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="1"/>
         <v>79710</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>1974</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <f>FOLK1AM!D52</f>
         <v>78605</v>
       </c>
-      <c r="D50">
-        <v>100</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
+      <c r="D50" s="4">
+        <v>100</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="1"/>
         <v>78605</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>1973</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <f>FOLK1AM!D53</f>
         <v>78092</v>
       </c>
-      <c r="D51">
-        <v>100</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
+      <c r="D51" s="4">
+        <v>100</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="1"/>
         <v>78092</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>1972</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="4">
         <f>FOLK1AM!D54</f>
         <v>81455</v>
       </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
+      <c r="D52" s="4">
+        <v>100</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="1"/>
         <v>81455</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>1971</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="4">
         <f>FOLK1AM!D55</f>
         <v>79672</v>
       </c>
-      <c r="D53">
-        <v>100</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
+      <c r="D53" s="4">
+        <v>100</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="1"/>
         <v>79672</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>1970</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="4">
         <f>FOLK1AM!D56</f>
         <v>75939</v>
       </c>
-      <c r="D54">
-        <v>100</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
+      <c r="D54" s="4">
+        <v>100</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="1"/>
         <v>75939</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>1969</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="4">
         <f>FOLK1AM!D57</f>
         <v>75940</v>
       </c>
-      <c r="D55">
-        <v>100</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
+      <c r="D55" s="4">
+        <v>100</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="1"/>
         <v>75940</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>1968</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="4">
         <f>FOLK1AM!D58</f>
         <v>78638</v>
       </c>
-      <c r="D56">
-        <v>100</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
+      <c r="D56" s="4">
+        <v>100</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="1"/>
         <v>78638</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>1967</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="4">
         <f>FOLK1AM!D59</f>
         <v>83760</v>
       </c>
-      <c r="D57">
-        <v>100</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
+      <c r="D57" s="4">
+        <v>100</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="1"/>
         <v>83760</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>1966</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="4">
         <f>FOLK1AM!D60</f>
         <v>88583</v>
       </c>
-      <c r="D58">
-        <v>100</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
+      <c r="D58" s="4">
+        <v>100</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="1"/>
         <v>88583</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
+    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>1965</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="4">
         <f>FOLK1AM!D61</f>
         <v>85289</v>
       </c>
-      <c r="D59">
-        <v>100</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
+      <c r="D59" s="4">
+        <v>100</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="1"/>
         <v>85289</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
+    <row r="60" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>1964</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="4">
         <f>FOLK1AM!D62</f>
         <v>82385</v>
       </c>
-      <c r="D60">
-        <v>100</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
+      <c r="D60" s="4">
+        <v>100</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="1"/>
         <v>82385</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="61" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>1963</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="4">
         <f>FOLK1AM!D63</f>
         <v>80282</v>
       </c>
-      <c r="D61">
-        <v>100</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
+      <c r="D61" s="4">
+        <v>100</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="1"/>
         <v>80282</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
+    <row r="62" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>1962</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="4">
         <f>FOLK1AM!D64</f>
         <v>75718</v>
       </c>
-      <c r="D62">
-        <v>100</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
+      <c r="D62" s="4">
+        <v>100</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="1"/>
         <v>75718</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="63" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>1961</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="4">
         <f>FOLK1AM!D65</f>
         <v>72849</v>
       </c>
-      <c r="D63">
-        <v>100</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
+      <c r="D63" s="4">
+        <v>100</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="1"/>
         <v>72849</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="64" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>1960</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="4">
         <f>FOLK1AM!D66</f>
         <v>72119</v>
       </c>
-      <c r="D64">
-        <v>100</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
+      <c r="D64" s="4">
+        <v>100</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="1"/>
         <v>72119</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>1959</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="4">
         <f>FOLK1AM!D67</f>
         <v>69084</v>
       </c>
-      <c r="D65">
-        <v>100</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
+      <c r="D65" s="4">
+        <v>100</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="1"/>
         <v>69084</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>1958</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="4">
         <f>FOLK1AM!D68</f>
         <v>68119</v>
       </c>
-      <c r="D66">
-        <v>100</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
+      <c r="D66" s="4">
+        <v>100</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" ref="E66:E97" si="2">D66/100*C66</f>
         <v>68119</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>1957</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="4">
         <f>FOLK1AM!D69</f>
         <v>67246</v>
       </c>
-      <c r="D67">
-        <v>100</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E124" si="1">D67/100*C67</f>
+      <c r="D67" s="4">
+        <v>100</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="2"/>
         <v>67246</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>1956</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="4">
         <f>FOLK1AM!D70</f>
         <v>66919</v>
       </c>
-      <c r="D68">
-        <v>100</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
+      <c r="D68" s="4">
+        <v>100</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="2"/>
         <v>66919</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>1955</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="4">
         <f>FOLK1AM!D71</f>
         <v>64815</v>
       </c>
-      <c r="D69">
-        <v>100</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="1"/>
+      <c r="D69" s="4">
+        <v>100</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="2"/>
         <v>64815</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>1954</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="4">
         <f>FOLK1AM!D72</f>
         <v>63342</v>
       </c>
-      <c r="D70">
-        <v>100</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
+      <c r="D70" s="4">
+        <v>100</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="2"/>
         <v>63342</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>1953</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="4">
         <f>FOLK1AM!D73</f>
         <v>63115</v>
       </c>
-      <c r="D71">
-        <v>100</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
+      <c r="D71" s="4">
+        <v>100</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="2"/>
         <v>63115</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>1952</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="4">
         <f>FOLK1AM!D74</f>
         <v>60803</v>
       </c>
-      <c r="D72">
-        <v>100</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="1"/>
+      <c r="D72" s="4">
+        <v>100</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="2"/>
         <v>60803</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>1951</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="4">
         <f>FOLK1AM!D75</f>
         <v>59089</v>
       </c>
-      <c r="D73">
-        <v>100</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="1"/>
+      <c r="D73" s="4">
+        <v>100</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="2"/>
         <v>59089</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>1950</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="4">
         <f>FOLK1AM!D76</f>
         <v>59971</v>
       </c>
-      <c r="D74">
-        <v>100</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
+      <c r="D74" s="4">
+        <v>100</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="2"/>
         <v>59971</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>1949</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="4">
         <f>FOLK1AM!D77</f>
         <v>58651</v>
       </c>
-      <c r="D75">
-        <v>100</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
+      <c r="D75" s="4">
+        <v>100</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" si="2"/>
         <v>58651</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>1948</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="4">
         <f>FOLK1AM!D78</f>
         <v>60521</v>
       </c>
-      <c r="D76">
-        <v>100</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
+      <c r="D76" s="4">
+        <v>100</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="2"/>
         <v>60521</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>1947</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="4">
         <f>FOLK1AM!D79</f>
         <v>62894</v>
       </c>
-      <c r="D77">
-        <v>100</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
+      <c r="D77" s="4">
+        <v>100</v>
+      </c>
+      <c r="E77" s="4">
+        <f t="shared" si="2"/>
         <v>62894</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>1946</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="4">
         <f>FOLK1AM!D80</f>
         <v>63063</v>
       </c>
-      <c r="D78">
-        <v>100</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="1"/>
+      <c r="D78" s="4">
+        <v>100</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="2"/>
         <v>63063</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>1945</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="4">
         <f>FOLK1AM!D81</f>
         <v>58358</v>
       </c>
-      <c r="D79">
-        <v>100</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="1"/>
+      <c r="D79" s="4">
+        <v>100</v>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="2"/>
         <v>58358</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>1944</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="4">
         <f>FOLK1AM!D82</f>
         <v>53184</v>
       </c>
-      <c r="D80">
-        <v>100</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="1"/>
+      <c r="D80" s="4">
+        <v>100</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="2"/>
         <v>53184</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="81" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>1943</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="4">
         <f>FOLK1AM!D83</f>
         <v>47128</v>
       </c>
-      <c r="D81">
-        <v>100</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="1"/>
+      <c r="D81" s="4">
+        <v>100</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="2"/>
         <v>47128</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="82" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>1942</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="4">
         <f>FOLK1AM!D84</f>
         <v>42494</v>
       </c>
-      <c r="D82">
-        <v>100</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="1"/>
+      <c r="D82" s="4">
+        <v>100</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="2"/>
         <v>42494</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83">
+    <row r="83" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>1941</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="4">
         <f>FOLK1AM!D85</f>
         <v>36131</v>
       </c>
-      <c r="D83">
-        <v>100</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="1"/>
+      <c r="D83" s="4">
+        <v>100</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="2"/>
         <v>36131</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="84" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>1940</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="4">
         <f>FOLK1AM!D86</f>
         <v>33354</v>
       </c>
-      <c r="D84">
-        <v>100</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="1"/>
+      <c r="D84" s="4">
+        <v>100</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="2"/>
         <v>33354</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="85" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>1939</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="4">
         <f>FOLK1AM!D87</f>
         <v>29877</v>
       </c>
-      <c r="D85">
-        <v>100</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="1"/>
+      <c r="D85" s="4">
+        <v>100</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="2"/>
         <v>29877</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="86" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>1938</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="4">
         <f>FOLK1AM!D88</f>
         <v>27412</v>
       </c>
-      <c r="D86">
-        <v>100</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="1"/>
+      <c r="D86" s="4">
+        <v>100</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="2"/>
         <v>27412</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="87" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>1937</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="4">
         <f>FOLK1AM!D89</f>
         <v>23908</v>
       </c>
-      <c r="D87">
-        <v>100</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="1"/>
+      <c r="D87" s="4">
+        <v>100</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="2"/>
         <v>23908</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="88" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>1936</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="4">
         <f>FOLK1AM!D90</f>
         <v>20633</v>
       </c>
-      <c r="D88">
-        <v>100</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="1"/>
+      <c r="D88" s="4">
+        <v>100</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" si="2"/>
         <v>20633</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="89" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>1935</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="4">
         <f>FOLK1AM!D91</f>
         <v>17462</v>
       </c>
-      <c r="D89">
-        <v>100</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="1"/>
+      <c r="D89" s="4">
+        <v>100</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="2"/>
         <v>17462</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="90" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>1934</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="4">
         <f>FOLK1AM!D92</f>
         <v>14873</v>
       </c>
-      <c r="D90">
-        <v>100</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="1"/>
+      <c r="D90" s="4">
+        <v>100</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="2"/>
         <v>14873</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91">
+    <row r="91" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>1933</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="4">
         <f>FOLK1AM!D93</f>
         <v>12227</v>
       </c>
-      <c r="D91">
-        <v>100</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
+      <c r="D91" s="4">
+        <v>100</v>
+      </c>
+      <c r="E91" s="4">
+        <f t="shared" si="2"/>
         <v>12227</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="92" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>1932</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="4">
         <f>FOLK1AM!D94</f>
         <v>10183</v>
       </c>
-      <c r="D92">
-        <v>100</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="1"/>
+      <c r="D92" s="4">
+        <v>100</v>
+      </c>
+      <c r="E92" s="4">
+        <f t="shared" si="2"/>
         <v>10183</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="93" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>1931</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="4">
         <f>FOLK1AM!D95</f>
         <v>8363</v>
       </c>
-      <c r="D93">
-        <v>100</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="1"/>
+      <c r="D93" s="4">
+        <v>100</v>
+      </c>
+      <c r="E93" s="4">
+        <f t="shared" si="2"/>
         <v>8363</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94">
+    <row r="94" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>1930</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="4">
         <f>FOLK1AM!D96</f>
         <v>6852</v>
       </c>
-      <c r="D94">
-        <v>100</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="1"/>
+      <c r="D94" s="4">
+        <v>100</v>
+      </c>
+      <c r="E94" s="4">
+        <f t="shared" si="2"/>
         <v>6852</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95">
+    <row r="95" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>1929</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="4">
         <f>FOLK1AM!D97</f>
         <v>5415</v>
       </c>
-      <c r="D95">
-        <v>100</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="1"/>
+      <c r="D95" s="4">
+        <v>100</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="2"/>
         <v>5415</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96">
+    <row r="96" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <v>1928</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="4">
         <f>FOLK1AM!D98</f>
         <v>4324</v>
       </c>
-      <c r="D96">
-        <v>100</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="1"/>
+      <c r="D96" s="4">
+        <v>100</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" si="2"/>
         <v>4324</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97">
+    <row r="97" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
         <v>1927</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="4">
         <f>FOLK1AM!D99</f>
         <v>3131</v>
       </c>
-      <c r="D97">
-        <v>100</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="1"/>
+      <c r="D97" s="4">
+        <v>100</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="2"/>
         <v>3131</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="4">
         <v>1926</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="4">
         <f>FOLK1AM!D100</f>
         <v>2381</v>
       </c>
-      <c r="D98">
-        <v>100</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="1"/>
+      <c r="D98" s="4">
+        <v>100</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" ref="E98:E129" si="3">D98/100*C98</f>
         <v>2381</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99">
+    <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>1925</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="4">
         <f>FOLK1AM!D101</f>
         <v>1732</v>
       </c>
-      <c r="D99">
-        <v>100</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="1"/>
+      <c r="D99" s="4">
+        <v>100</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="3"/>
         <v>1732</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100">
+    <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
         <v>1924</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="4">
         <f>FOLK1AM!D102</f>
         <v>1242</v>
       </c>
-      <c r="D100">
-        <v>100</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="1"/>
+      <c r="D100" s="4">
+        <v>100</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="3"/>
         <v>1242</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101">
+    <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
         <v>1923</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="4">
         <f>FOLK1AM!D103</f>
         <v>790</v>
       </c>
-      <c r="D101">
-        <v>100</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="1"/>
+      <c r="D101" s="4">
+        <v>100</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="3"/>
         <v>790</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102">
+    <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>100</v>
+      </c>
+      <c r="B102" s="4">
         <v>1922</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="4">
         <f>FOLK1AM!D104</f>
         <v>437</v>
       </c>
-      <c r="D102">
-        <v>100</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="1"/>
+      <c r="D102" s="4">
+        <v>100</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" si="3"/>
         <v>437</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103">
+    <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
         <v>101</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <v>1921</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="4">
         <f>FOLK1AM!D105</f>
         <v>331</v>
       </c>
-      <c r="D103">
-        <v>100</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="1"/>
+      <c r="D103" s="4">
+        <v>100</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" si="3"/>
         <v>331</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104">
+    <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
         <v>102</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
         <v>1920</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="4">
         <f>FOLK1AM!D106</f>
         <v>198</v>
       </c>
-      <c r="D104">
-        <v>100</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="1"/>
+      <c r="D104" s="4">
+        <v>100</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105">
+    <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
         <v>103</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
         <v>1919</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="4">
         <f>FOLK1AM!D107</f>
         <v>95</v>
       </c>
-      <c r="D105">
-        <v>100</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="1"/>
+      <c r="D105" s="4">
+        <v>100</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106">
+    <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
         <v>104</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
         <v>1918</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="4">
         <f>FOLK1AM!D108</f>
         <v>51</v>
       </c>
-      <c r="D106">
-        <v>100</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="1"/>
+      <c r="D106" s="4">
+        <v>100</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107">
+    <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
         <v>105</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <v>1917</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="4">
         <f>FOLK1AM!D109</f>
         <v>21</v>
       </c>
-      <c r="D107">
-        <v>100</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="1"/>
+      <c r="D107" s="4">
+        <v>100</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108">
+    <row r="108" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
         <v>106</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <v>1916</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="4">
         <f>FOLK1AM!D110</f>
         <v>14</v>
       </c>
-      <c r="D108">
-        <v>100</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="1"/>
+      <c r="D108" s="4">
+        <v>100</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109">
+    <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
         <v>107</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <v>1915</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="4">
         <f>FOLK1AM!D111</f>
         <v>6</v>
       </c>
-      <c r="D109">
-        <v>100</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="1"/>
+      <c r="D109" s="4">
+        <v>100</v>
+      </c>
+      <c r="E109" s="4">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110">
+    <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
         <v>108</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <v>1914</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="4">
         <f>FOLK1AM!D112</f>
         <v>4</v>
       </c>
-      <c r="D110">
-        <v>100</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="1"/>
+      <c r="D110" s="4">
+        <v>100</v>
+      </c>
+      <c r="E110" s="4">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111">
+    <row r="111" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
         <v>109</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>1913</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="4">
         <f>FOLK1AM!D113</f>
         <v>1</v>
       </c>
-      <c r="D111">
-        <v>100</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="1"/>
+      <c r="D111" s="4">
+        <v>100</v>
+      </c>
+      <c r="E111" s="4">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112">
+    <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
         <v>110</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <v>1912</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="4">
         <f>FOLK1AM!D114</f>
         <v>0</v>
       </c>
-      <c r="D112">
-        <v>100</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="1"/>
+      <c r="D112" s="4">
+        <v>100</v>
+      </c>
+      <c r="E112" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="113" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
         <v>111</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>1911</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="4">
         <f>FOLK1AM!D115</f>
         <v>0</v>
       </c>
-      <c r="D113">
-        <v>100</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="1"/>
+      <c r="D113" s="4">
+        <v>100</v>
+      </c>
+      <c r="E113" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114">
+    <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
         <v>112</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>1910</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="4">
         <f>FOLK1AM!D116</f>
         <v>1</v>
       </c>
-      <c r="D114">
-        <v>100</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="1"/>
+      <c r="D114" s="4">
+        <v>100</v>
+      </c>
+      <c r="E114" s="4">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115">
+    <row r="115" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
         <v>113</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>1909</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="4">
         <f>FOLK1AM!D117</f>
         <v>0</v>
       </c>
-      <c r="D115">
-        <v>100</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="1"/>
+      <c r="D115" s="4">
+        <v>100</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116">
+    <row r="116" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
         <v>114</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>1908</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="4">
         <f>FOLK1AM!D118</f>
         <v>0</v>
       </c>
-      <c r="D116">
-        <v>100</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="1"/>
+      <c r="D116" s="4">
+        <v>100</v>
+      </c>
+      <c r="E116" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117">
+    <row r="117" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
         <v>115</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>1907</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="4">
         <f>FOLK1AM!D119</f>
         <v>0</v>
       </c>
-      <c r="D117">
-        <v>100</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="1"/>
+      <c r="D117" s="4">
+        <v>100</v>
+      </c>
+      <c r="E117" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118">
+    <row r="118" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
         <v>116</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>1906</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="4">
         <f>FOLK1AM!D120</f>
         <v>0</v>
       </c>
-      <c r="D118">
-        <v>100</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="1"/>
+      <c r="D118" s="4">
+        <v>100</v>
+      </c>
+      <c r="E118" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119">
+    <row r="119" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
         <v>117</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>1905</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="4">
         <f>FOLK1AM!D121</f>
         <v>0</v>
       </c>
-      <c r="D119">
-        <v>100</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="1"/>
+      <c r="D119" s="4">
+        <v>100</v>
+      </c>
+      <c r="E119" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120">
+    <row r="120" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
         <v>118</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
         <v>1904</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="4">
         <f>FOLK1AM!D122</f>
         <v>0</v>
       </c>
-      <c r="D120">
-        <v>100</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="1"/>
+      <c r="D120" s="4">
+        <v>100</v>
+      </c>
+      <c r="E120" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121">
+    <row r="121" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
         <v>119</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
         <v>1903</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="4">
         <f>FOLK1AM!D123</f>
         <v>0</v>
       </c>
-      <c r="D121">
-        <v>100</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="1"/>
+      <c r="D121" s="4">
+        <v>100</v>
+      </c>
+      <c r="E121" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122">
+    <row r="122" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
         <v>120</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
         <v>1902</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="4">
         <f>FOLK1AM!D124</f>
         <v>0</v>
       </c>
-      <c r="D122">
-        <v>100</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="1"/>
+      <c r="D122" s="4">
+        <v>100</v>
+      </c>
+      <c r="E122" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3292,1165 +3329,1171 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="4">
         <v>59155</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="3" t="s">
-        <v>6</v>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>64097</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
-        <v>7</v>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="4">
         <v>62172</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="3" t="s">
-        <v>8</v>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="4">
         <v>62749</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="3" t="s">
-        <v>9</v>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>62912</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="3" t="s">
-        <v>10</v>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="4">
         <v>62836</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="3" t="s">
-        <v>11</v>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="4">
         <v>63632</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
-        <v>12</v>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="4">
         <v>60499</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
-        <v>13</v>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="4">
         <v>60059</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
-        <v>14</v>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="4">
         <v>59599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
-        <v>15</v>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="4">
         <v>61860</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
-        <v>16</v>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="4">
         <v>63470</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="3" t="s">
-        <v>17</v>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="4">
         <v>67931</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
-        <v>18</v>
+    <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="4">
         <v>67291</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
-        <v>19</v>
+    <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="4">
         <v>69758</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="3" t="s">
-        <v>20</v>
+    <row r="19" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D19" s="4">
         <v>68991</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="3" t="s">
-        <v>21</v>
+    <row r="20" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="4">
         <v>70136</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>22</v>
+    <row r="21" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="4">
         <v>69299</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="3" t="s">
-        <v>23</v>
+    <row r="22" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D22" s="4">
         <v>69420</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="3" t="s">
-        <v>24</v>
+    <row r="23" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D23" s="4">
         <v>69984</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="3" t="s">
-        <v>25</v>
+    <row r="24" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D24" s="4">
         <v>71622</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
-        <v>26</v>
+    <row r="25" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D25" s="4">
         <v>74269</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="3" t="s">
-        <v>27</v>
+    <row r="26" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="4">
         <v>76597</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="3" t="s">
-        <v>28</v>
+    <row r="27" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="4">
         <v>76916</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
-        <v>29</v>
+    <row r="28" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D28" s="4">
         <v>78037</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="3" t="s">
-        <v>30</v>
+    <row r="29" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D29" s="4">
         <v>80561</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="3" t="s">
-        <v>31</v>
+    <row r="30" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="D30" s="4">
         <v>80474</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="3" t="s">
-        <v>32</v>
+    <row r="31" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D31" s="4">
         <v>83793</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="3" t="s">
-        <v>33</v>
+    <row r="32" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D32" s="4">
         <v>83449</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="3" t="s">
-        <v>34</v>
+    <row r="33" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D33" s="4">
         <v>81629</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="3" t="s">
-        <v>35</v>
+    <row r="34" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D34" s="4">
         <v>82352</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="3" t="s">
-        <v>36</v>
+    <row r="35" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D35" s="4">
         <v>79727</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="3" t="s">
-        <v>37</v>
+    <row r="36" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D36" s="4">
         <v>79752</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="3" t="s">
-        <v>38</v>
+    <row r="37" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D37" s="4">
         <v>77418</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="3" t="s">
-        <v>39</v>
+    <row r="38" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D38" s="4">
         <v>75124</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39" s="3" t="s">
-        <v>40</v>
+    <row r="39" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D39" s="4">
         <v>72116</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="3" t="s">
-        <v>41</v>
+    <row r="40" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D40" s="4">
         <v>71146</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="3" t="s">
-        <v>42</v>
+    <row r="41" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D41" s="4">
         <v>69188</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C42" s="3" t="s">
-        <v>43</v>
+    <row r="42" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D42" s="4">
         <v>66968</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43" s="3" t="s">
-        <v>44</v>
+    <row r="43" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D43" s="4">
         <v>65660</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="3" t="s">
-        <v>45</v>
+    <row r="44" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D44" s="4">
         <v>66626</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="3" t="s">
-        <v>46</v>
+    <row r="45" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D45" s="4">
         <v>66205</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="3" t="s">
-        <v>47</v>
+    <row r="46" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D46" s="4">
         <v>69810</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="3" t="s">
-        <v>48</v>
+    <row r="47" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D47" s="4">
         <v>70647</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C48" s="3" t="s">
-        <v>49</v>
+    <row r="48" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D48" s="4">
         <v>72363</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="3" t="s">
-        <v>50</v>
+    <row r="49" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D49" s="4">
         <v>71525</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="3" t="s">
-        <v>51</v>
+    <row r="50" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D50" s="4">
         <v>74897</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="3" t="s">
-        <v>52</v>
+    <row r="51" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="D51" s="4">
         <v>79710</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="3" t="s">
-        <v>53</v>
+    <row r="52" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D52" s="4">
         <v>78605</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="3" t="s">
-        <v>54</v>
+    <row r="53" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D53" s="4">
         <v>78092</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="3" t="s">
-        <v>55</v>
+    <row r="54" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D54" s="4">
         <v>81455</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="3" t="s">
-        <v>56</v>
+    <row r="55" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D55" s="4">
         <v>79672</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="3" t="s">
-        <v>57</v>
+    <row r="56" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D56" s="4">
         <v>75939</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="3" t="s">
-        <v>58</v>
+    <row r="57" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D57" s="4">
         <v>75940</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="3" t="s">
-        <v>59</v>
+    <row r="58" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D58" s="4">
         <v>78638</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="3" t="s">
-        <v>60</v>
+    <row r="59" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="D59" s="4">
         <v>83760</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="3" t="s">
-        <v>61</v>
+    <row r="60" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D60" s="4">
         <v>88583</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="3" t="s">
-        <v>62</v>
+    <row r="61" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D61" s="4">
         <v>85289</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="3" t="s">
-        <v>63</v>
+    <row r="62" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D62" s="4">
         <v>82385</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C63" s="3" t="s">
-        <v>64</v>
+    <row r="63" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D63" s="4">
         <v>80282</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="3" t="s">
-        <v>65</v>
+    <row r="64" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D64" s="4">
         <v>75718</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65" s="3" t="s">
-        <v>66</v>
+    <row r="65" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="D65" s="4">
         <v>72849</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66" s="3" t="s">
-        <v>67</v>
+    <row r="66" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D66" s="4">
         <v>72119</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C67" s="3" t="s">
-        <v>68</v>
+    <row r="67" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D67" s="4">
         <v>69084</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="3" t="s">
-        <v>69</v>
+    <row r="68" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D68" s="4">
         <v>68119</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="3" t="s">
-        <v>70</v>
+    <row r="69" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D69" s="4">
         <v>67246</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="3" t="s">
-        <v>71</v>
+    <row r="70" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D70" s="4">
         <v>66919</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C71" s="3" t="s">
-        <v>72</v>
+    <row r="71" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="D71" s="4">
         <v>64815</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C72" s="3" t="s">
-        <v>73</v>
+    <row r="72" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D72" s="4">
         <v>63342</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C73" s="3" t="s">
-        <v>74</v>
+    <row r="73" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="D73" s="4">
         <v>63115</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C74" s="3" t="s">
-        <v>75</v>
+    <row r="74" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D74" s="4">
         <v>60803</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C75" s="3" t="s">
-        <v>76</v>
+    <row r="75" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D75" s="4">
         <v>59089</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C76" s="3" t="s">
-        <v>77</v>
+    <row r="76" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D76" s="4">
         <v>59971</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C77" s="3" t="s">
-        <v>78</v>
+    <row r="77" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="D77" s="4">
         <v>58651</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C78" s="3" t="s">
-        <v>79</v>
+    <row r="78" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D78" s="4">
         <v>60521</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C79" s="3" t="s">
-        <v>80</v>
+    <row r="79" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D79" s="4">
         <v>62894</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C80" s="3" t="s">
-        <v>81</v>
+    <row r="80" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="D80" s="4">
         <v>63063</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C81" s="3" t="s">
-        <v>82</v>
+    <row r="81" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="D81" s="4">
         <v>58358</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C82" s="3" t="s">
-        <v>83</v>
+    <row r="82" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D82" s="4">
         <v>53184</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C83" s="3" t="s">
-        <v>84</v>
+    <row r="83" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D83" s="4">
         <v>47128</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C84" s="3" t="s">
-        <v>85</v>
+    <row r="84" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D84" s="4">
         <v>42494</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C85" s="3" t="s">
-        <v>86</v>
+    <row r="85" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D85" s="4">
         <v>36131</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C86" s="3" t="s">
-        <v>87</v>
+    <row r="86" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D86" s="4">
         <v>33354</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C87" s="3" t="s">
-        <v>88</v>
+    <row r="87" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D87" s="4">
         <v>29877</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C88" s="3" t="s">
-        <v>89</v>
+    <row r="88" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D88" s="4">
         <v>27412</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C89" s="3" t="s">
-        <v>90</v>
+    <row r="89" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D89" s="4">
         <v>23908</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C90" s="3" t="s">
-        <v>91</v>
+    <row r="90" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D90" s="4">
         <v>20633</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C91" s="3" t="s">
-        <v>92</v>
+    <row r="91" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="D91" s="4">
         <v>17462</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C92" s="3" t="s">
-        <v>93</v>
+    <row r="92" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D92" s="4">
         <v>14873</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C93" s="3" t="s">
-        <v>94</v>
+    <row r="93" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="D93" s="4">
         <v>12227</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C94" s="3" t="s">
-        <v>95</v>
+    <row r="94" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D94" s="4">
         <v>10183</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C95" s="3" t="s">
-        <v>96</v>
+    <row r="95" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="D95" s="4">
         <v>8363</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C96" s="3" t="s">
-        <v>97</v>
+    <row r="96" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D96" s="4">
         <v>6852</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C97" s="3" t="s">
-        <v>98</v>
+    <row r="97" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D97" s="4">
         <v>5415</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C98" s="3" t="s">
-        <v>99</v>
+    <row r="98" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D98" s="4">
         <v>4324</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C99" s="3" t="s">
-        <v>100</v>
+    <row r="99" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D99" s="4">
         <v>3131</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C100" s="3" t="s">
-        <v>101</v>
+    <row r="100" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D100" s="4">
         <v>2381</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C101" s="3" t="s">
-        <v>102</v>
+    <row r="101" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D101" s="4">
         <v>1732</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C102" s="3" t="s">
-        <v>103</v>
+    <row r="102" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D102" s="4">
         <v>1242</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C103" s="3" t="s">
-        <v>104</v>
+    <row r="103" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="D103" s="4">
         <v>790</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C104" s="3" t="s">
-        <v>105</v>
+    <row r="104" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="D104" s="4">
         <v>437</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C105" s="3" t="s">
-        <v>106</v>
+    <row r="105" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="D105" s="4">
         <v>331</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C106" s="3" t="s">
-        <v>107</v>
+    <row r="106" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="D106" s="4">
         <v>198</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C107" s="3" t="s">
-        <v>108</v>
+    <row r="107" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="D107" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C108" s="3" t="s">
-        <v>109</v>
+    <row r="108" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="D108" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C109" s="3" t="s">
-        <v>110</v>
+    <row r="109" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="D109" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C110" s="3" t="s">
-        <v>111</v>
+    <row r="110" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="D110" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C111" s="3" t="s">
-        <v>112</v>
+    <row r="111" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="D111" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C112" s="3" t="s">
-        <v>113</v>
+    <row r="112" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="D112" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C113" s="3" t="s">
-        <v>114</v>
+    <row r="113" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C114" s="3" t="s">
-        <v>115</v>
+    <row r="114" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="D114" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C115" s="3" t="s">
-        <v>116</v>
+    <row r="115" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="D115" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C116" s="3" t="s">
-        <v>117</v>
+    <row r="116" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C117" s="3" t="s">
-        <v>118</v>
+    <row r="117" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="D117" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C118" s="3" t="s">
-        <v>119</v>
+    <row r="118" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="D118" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C119" s="3" t="s">
-        <v>120</v>
+    <row r="119" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="D119" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C120" s="3" t="s">
-        <v>121</v>
+    <row r="120" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="D120" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C121" s="3" t="s">
-        <v>122</v>
+    <row r="121" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="D121" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C122" s="3" t="s">
-        <v>123</v>
+    <row r="122" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="D122" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C123" s="3" t="s">
-        <v>124</v>
+    <row r="123" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C123" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="D123" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C124" s="3" t="s">
-        <v>125</v>
+    <row r="124" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D124" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C125" s="3" t="s">
-        <v>126</v>
+    <row r="125" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="D125" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C126" s="3" t="s">
-        <v>127</v>
+    <row r="126" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C126" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D126" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C127" s="3" t="s">
-        <v>128</v>
+    <row r="127" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="D127" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C128" s="3" t="s">
-        <v>129</v>
+    <row r="128" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="D128" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C129" s="3" t="s">
-        <v>130</v>
+    <row r="129" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C129" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="D129" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BC4B3E-096B-5A43-A79B-14A167FDFB02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1997</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1996</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1995</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1994</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1993</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>1992</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1991</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>1990</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>1989</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>1988</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>1987</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>82</v>
       </c>
     </row>
@@ -4460,359 +4503,363 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74FE30F-3101-B64E-BCA1-79B38D1C9D0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="28" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C3" s="5">
+    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="3">
         <v>1998</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>1999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>2000</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>2001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>2002</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>2003</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>2004</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>2005</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>2006</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>2007</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>2008</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <v>2009</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>2010</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="3">
         <v>2011</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="3">
         <v>2012</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="3">
         <v>2013</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="3">
         <v>2014</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="3">
         <v>2015</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="3">
         <v>2016</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="3">
         <v>2017</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="3">
         <v>2018</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="3">
         <v>2019</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="3">
         <v>2020</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="3">
         <v>2021</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="3">
         <v>2022</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="5">
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
         <v>86</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>88</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>88</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>85</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>87</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>89</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>90</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>89</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>89</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>89</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>89</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <v>90</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>90</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="3">
         <v>91</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="3">
         <v>92</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="3">
         <v>93</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="3">
         <v>94</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="3">
         <v>95</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="3">
         <v>95</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="3">
         <v>94</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="3">
         <v>93</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="3">
         <v>94</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="3">
         <v>94</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="3">
         <v>94</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="3">
         <v>94</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="5">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
         <v>59884</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>60523</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>61334</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>60113</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>59492</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>60796</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>61278</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>60732</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>61478</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>60309</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>61528</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>59591</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>60393</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="3">
         <v>56314</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="3">
         <v>55823</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="3">
         <v>54267</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="3">
         <v>55377</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="3">
         <v>56638</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="3">
         <v>59542</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="3">
         <v>59280</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="3">
         <v>58437</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="3">
         <v>58612</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="3">
         <v>58873</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="3">
         <v>60958</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="3">
         <v>55602</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="3">
         <v>24714</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="5">
+    <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
         <v>69681</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>69162</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>69740</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>70710</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>68672</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>68424</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>68375</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>68316</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>68936</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>68016</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>68886</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>66490</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>66758</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>62186</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="3">
         <v>60959</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="3">
         <v>58595</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="3">
         <v>59126</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="3">
         <v>59784</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="3">
         <v>62859</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="3">
         <v>62990</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="3">
         <v>62844</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="3">
         <v>62685</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="3">
         <v>62574</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="3">
         <v>64711</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="3">
         <v>59301</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="3">
         <v>58036</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MMR1_cov_dk_2022.xlsx
+++ b/MMR1_cov_dk_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/Library/CloudStorage/OneDrive-RoskildeUniversitet/Dokumenter/measles-network-DK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB4112-53BF-6C41-9D93-4C1DFB7CF4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7259DA-78F6-824C-8532-813673566AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="19380" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +518,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -570,36 +576,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -911,2417 +929,2533 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="12">
         <f>SUM(E2:E122)</f>
         <v>5631420.3599999994</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>2022</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <f>FOLK1AM!D4</f>
         <v>59155</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <f>'SSI_cov98-2022'!AA4</f>
         <v>94</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <f t="shared" ref="E2:E33" si="0">D2/100*C2</f>
         <v>55605.7</v>
       </c>
       <c r="G2" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="6">
         <f>SUM(C2:C122)</f>
         <v>5934002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>2021</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <f>FOLK1AM!D5</f>
         <v>64097</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <f>'SSI_cov98-2022'!Z4</f>
         <v>94</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="12">
         <f t="shared" si="0"/>
         <v>60251.179999999993</v>
       </c>
       <c r="G3" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="12">
         <f>H1/H2</f>
         <v>0.94900884091377102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>2020</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <f>FOLK1AM!D6</f>
         <v>62172</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <f>'SSI_cov98-2022'!Y4</f>
         <v>94</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="12">
         <f t="shared" si="0"/>
         <v>58441.68</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>2019</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <f>FOLK1AM!D7</f>
         <v>62749</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <f>'SSI_cov98-2022'!X4</f>
         <v>94</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <f t="shared" si="0"/>
         <v>58984.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>2018</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <f>FOLK1AM!D8</f>
         <v>62912</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <f>'SSI_cov98-2022'!W4</f>
         <v>93</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>58508.160000000003</v>
       </c>
       <c r="G6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>2017</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <f>FOLK1AM!D9</f>
         <v>62836</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <f>'SSI_cov98-2022'!V4</f>
         <v>94</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>59065.84</v>
       </c>
       <c r="G7" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="12">
         <f>SUM(E2:E37)</f>
         <v>2247104.36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>2016</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <f>FOLK1AM!D10</f>
         <v>63632</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <f>'SSI_cov98-2022'!U4</f>
         <v>95</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>60450.399999999994</v>
       </c>
       <c r="G8" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
         <f>SUM(C2:C37)</f>
         <v>2549686</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>2015</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <f>FOLK1AM!D11</f>
         <v>60499</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <f>'SSI_cov98-2022'!T4</f>
         <v>95</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>57474.049999999996</v>
       </c>
       <c r="G9" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="12">
         <f>H7/H8</f>
         <v>0.88132592013291045</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>2014</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <f>FOLK1AM!D12</f>
         <v>60059</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <f>'SSI_cov98-2022'!S4</f>
         <v>94</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>56455.46</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>2013</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <f>FOLK1AM!D13</f>
         <v>59599</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <f>'SSI_cov98-2022'!R4</f>
         <v>93</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>55427.07</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>2012</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <f>FOLK1AM!D14</f>
         <v>61860</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <f>'SSI_cov98-2022'!Q4</f>
         <v>92</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>56911.200000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>2011</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <f>FOLK1AM!D15</f>
         <v>63470</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <f>'SSI_cov98-2022'!P4</f>
         <v>91</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
         <v>57757.700000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>2010</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <f>FOLK1AM!D16</f>
         <v>67931</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <f>'SSI_cov98-2022'!O4</f>
         <v>90</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>61137.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>2009</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <f>FOLK1AM!D17</f>
         <v>67291</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <f>'SSI_cov98-2022'!N4</f>
         <v>90</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>60561.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="6">
         <v>2008</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <f>FOLK1AM!D18</f>
         <v>69758</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <f>'SSI_cov98-2022'!M4</f>
         <v>89</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="12">
         <f t="shared" si="0"/>
         <v>62084.62</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <v>2007</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <f>FOLK1AM!D19</f>
         <v>68991</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <f>'SSI_cov98-2022'!L4</f>
         <v>89</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="12">
         <f t="shared" si="0"/>
         <v>61401.99</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="6">
         <v>2006</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <f>FOLK1AM!D20</f>
         <v>70136</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <f>'SSI_cov98-2022'!K4</f>
         <v>89</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="12">
         <f t="shared" si="0"/>
         <v>62421.04</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>2005</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <f>FOLK1AM!D21</f>
         <v>69299</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <f>'SSI_cov98-2022'!J4</f>
         <v>89</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
         <v>61676.11</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="6">
         <v>2004</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <f>FOLK1AM!D22</f>
         <v>69420</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <f>'SSI_cov98-2022'!I4</f>
         <v>90</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>62478</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="6">
         <v>2003</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="6">
         <f>FOLK1AM!D23</f>
         <v>69984</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <f>'SSI_cov98-2022'!H4</f>
         <v>89</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="12">
         <f t="shared" si="0"/>
         <v>62285.760000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="6">
         <v>2002</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <f>FOLK1AM!D24</f>
         <v>71622</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <f>'SSI_cov98-2022'!G4</f>
         <v>87</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="12">
         <f t="shared" si="0"/>
         <v>62311.14</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="6">
         <v>2001</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="6">
         <f>FOLK1AM!D25</f>
         <v>74269</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <f>'SSI_cov98-2022'!F4</f>
         <v>85</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="12">
         <f t="shared" si="0"/>
         <v>63128.65</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="6">
         <v>2000</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="6">
         <f>FOLK1AM!D26</f>
         <v>76597</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <f>'SSI_cov98-2022'!E4</f>
         <v>88</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="12">
         <f t="shared" si="0"/>
         <v>67405.36</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="6">
         <v>1999</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="6">
         <f>FOLK1AM!D27</f>
         <v>76916</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="6">
         <f>'SSI_cov98-2022'!D4</f>
         <v>88</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="12">
         <f t="shared" si="0"/>
         <v>67686.080000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="6">
         <v>1998</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <f>FOLK1AM!D28</f>
         <v>78037</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <f>'SSI_cov98-2022'!C4</f>
         <v>86</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="12">
         <f t="shared" si="0"/>
         <v>67111.819999999992</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="6">
         <v>1997</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="6">
         <f>FOLK1AM!D29</f>
         <v>80561</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
         <f>'EPINYT87-97'!B2</f>
         <v>84</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="12">
         <f t="shared" si="0"/>
         <v>67671.239999999991</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="6">
         <v>1996</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="6">
         <f>FOLK1AM!D30</f>
         <v>80474</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="6">
         <f>'EPINYT87-97'!B3</f>
         <v>85</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="12">
         <f t="shared" si="0"/>
         <v>68402.899999999994</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="6">
         <v>1995</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="6">
         <f>FOLK1AM!D31</f>
         <v>83793</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="6">
         <f>'EPINYT87-97'!B4</f>
         <v>88</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="12">
         <f t="shared" si="0"/>
         <v>73737.84</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="6">
         <v>1994</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="6">
         <f>FOLK1AM!D32</f>
         <v>83449</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="6">
         <f>'EPINYT87-97'!B5</f>
         <v>88</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="12">
         <f t="shared" si="0"/>
         <v>73435.12</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="6">
         <v>1993</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="6">
         <f>FOLK1AM!D33</f>
         <v>81629</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="6">
         <f>'EPINYT87-97'!B6</f>
         <v>81</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="12">
         <f t="shared" si="0"/>
         <v>66119.490000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="6">
         <v>1992</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="6">
         <f>FOLK1AM!D34</f>
         <v>82352</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="6">
         <f>'EPINYT87-97'!B7</f>
         <v>85</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="12">
         <f t="shared" si="0"/>
         <v>69999.199999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="6">
         <v>1991</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="6">
         <f>FOLK1AM!D35</f>
         <v>79727</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="6">
         <f>'EPINYT87-97'!B8</f>
         <v>86</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="12">
         <f t="shared" si="0"/>
         <v>68565.22</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="6">
         <v>1990</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="6">
         <f>FOLK1AM!D36</f>
         <v>79752</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="6">
         <f>'EPINYT87-97'!B9</f>
         <v>84</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="12">
         <f t="shared" ref="E34:E65" si="1">D34/100*C34</f>
         <v>66991.679999999993</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="6">
         <v>1989</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="6">
         <f>FOLK1AM!D37</f>
         <v>77418</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="6">
         <f>'EPINYT87-97'!B10</f>
         <v>80</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="12">
         <f t="shared" si="1"/>
         <v>61934.400000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="6">
         <v>1988</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="6">
         <f>FOLK1AM!D38</f>
         <v>75124</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="6">
         <f>'EPINYT87-97'!B11</f>
         <v>72</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="12">
         <f t="shared" si="1"/>
         <v>54089.279999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="6">
         <v>1987</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="6">
         <f>FOLK1AM!D39</f>
         <v>72116</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="6">
         <f>'EPINYT87-97'!B12</f>
         <v>82</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="12">
         <f t="shared" si="1"/>
         <v>59135.119999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="6">
         <v>1986</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="6">
         <f>FOLK1AM!D40</f>
         <v>71146</v>
       </c>
-      <c r="D38" s="4">
-        <v>100</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="D38" s="6">
+        <v>100</v>
+      </c>
+      <c r="E38" s="6">
         <f t="shared" si="1"/>
         <v>71146</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="6">
         <v>1985</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="6">
         <f>FOLK1AM!D41</f>
         <v>69188</v>
       </c>
-      <c r="D39" s="4">
-        <v>100</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D39" s="6">
+        <v>100</v>
+      </c>
+      <c r="E39" s="6">
         <f t="shared" si="1"/>
         <v>69188</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="6">
         <v>1984</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="6">
         <f>FOLK1AM!D42</f>
         <v>66968</v>
       </c>
-      <c r="D40" s="4">
-        <v>100</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="D40" s="6">
+        <v>100</v>
+      </c>
+      <c r="E40" s="6">
         <f t="shared" si="1"/>
         <v>66968</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="6">
         <v>1983</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="6">
         <f>FOLK1AM!D43</f>
         <v>65660</v>
       </c>
-      <c r="D41" s="4">
-        <v>100</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="D41" s="6">
+        <v>100</v>
+      </c>
+      <c r="E41" s="6">
         <f t="shared" si="1"/>
         <v>65660</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="6">
         <v>1982</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="6">
         <f>FOLK1AM!D44</f>
         <v>66626</v>
       </c>
-      <c r="D42" s="4">
-        <v>100</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="D42" s="6">
+        <v>100</v>
+      </c>
+      <c r="E42" s="6">
         <f t="shared" si="1"/>
         <v>66626</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="6">
         <v>1981</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="6">
         <f>FOLK1AM!D45</f>
         <v>66205</v>
       </c>
-      <c r="D43" s="4">
-        <v>100</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="6">
+        <v>100</v>
+      </c>
+      <c r="E43" s="6">
         <f t="shared" si="1"/>
         <v>66205</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="6">
         <v>1980</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="6">
         <f>FOLK1AM!D46</f>
         <v>69810</v>
       </c>
-      <c r="D44" s="4">
-        <v>100</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="D44" s="6">
+        <v>100</v>
+      </c>
+      <c r="E44" s="6">
         <f t="shared" si="1"/>
         <v>69810</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="6">
         <v>1979</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="6">
         <f>FOLK1AM!D47</f>
         <v>70647</v>
       </c>
-      <c r="D45" s="4">
-        <v>100</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="D45" s="6">
+        <v>100</v>
+      </c>
+      <c r="E45" s="6">
         <f t="shared" si="1"/>
         <v>70647</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="6">
         <v>1978</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="6">
         <f>FOLK1AM!D48</f>
         <v>72363</v>
       </c>
-      <c r="D46" s="4">
-        <v>100</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D46" s="6">
+        <v>100</v>
+      </c>
+      <c r="E46" s="6">
         <f t="shared" si="1"/>
         <v>72363</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="6">
         <v>1977</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="6">
         <f>FOLK1AM!D49</f>
         <v>71525</v>
       </c>
-      <c r="D47" s="4">
-        <v>100</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="D47" s="6">
+        <v>100</v>
+      </c>
+      <c r="E47" s="6">
         <f t="shared" si="1"/>
         <v>71525</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="6">
         <v>1976</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="6">
         <f>FOLK1AM!D50</f>
         <v>74897</v>
       </c>
-      <c r="D48" s="4">
-        <v>100</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="D48" s="6">
+        <v>100</v>
+      </c>
+      <c r="E48" s="6">
         <f t="shared" si="1"/>
         <v>74897</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="6">
         <v>1975</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="6">
         <f>FOLK1AM!D51</f>
         <v>79710</v>
       </c>
-      <c r="D49" s="4">
-        <v>100</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="D49" s="6">
+        <v>100</v>
+      </c>
+      <c r="E49" s="6">
         <f t="shared" si="1"/>
         <v>79710</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
         <v>48</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="6">
         <v>1974</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="6">
         <f>FOLK1AM!D52</f>
         <v>78605</v>
       </c>
-      <c r="D50" s="4">
-        <v>100</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="D50" s="6">
+        <v>100</v>
+      </c>
+      <c r="E50" s="6">
         <f t="shared" si="1"/>
         <v>78605</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="6">
         <v>1973</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="6">
         <f>FOLK1AM!D53</f>
         <v>78092</v>
       </c>
-      <c r="D51" s="4">
-        <v>100</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="D51" s="6">
+        <v>100</v>
+      </c>
+      <c r="E51" s="6">
         <f t="shared" si="1"/>
         <v>78092</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
         <v>50</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="6">
         <v>1972</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="6">
         <f>FOLK1AM!D54</f>
         <v>81455</v>
       </c>
-      <c r="D52" s="4">
-        <v>100</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="D52" s="6">
+        <v>100</v>
+      </c>
+      <c r="E52" s="6">
         <f t="shared" si="1"/>
         <v>81455</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="6">
         <v>1971</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="6">
         <f>FOLK1AM!D55</f>
         <v>79672</v>
       </c>
-      <c r="D53" s="4">
-        <v>100</v>
-      </c>
-      <c r="E53" s="4">
+      <c r="D53" s="6">
+        <v>100</v>
+      </c>
+      <c r="E53" s="6">
         <f t="shared" si="1"/>
         <v>79672</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="6">
         <v>1970</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="6">
         <f>FOLK1AM!D56</f>
         <v>75939</v>
       </c>
-      <c r="D54" s="4">
-        <v>100</v>
-      </c>
-      <c r="E54" s="4">
+      <c r="D54" s="6">
+        <v>100</v>
+      </c>
+      <c r="E54" s="6">
         <f t="shared" si="1"/>
         <v>75939</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="6">
         <v>1969</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="6">
         <f>FOLK1AM!D57</f>
         <v>75940</v>
       </c>
-      <c r="D55" s="4">
-        <v>100</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="D55" s="6">
+        <v>100</v>
+      </c>
+      <c r="E55" s="6">
         <f t="shared" si="1"/>
         <v>75940</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="6">
         <v>1968</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="6">
         <f>FOLK1AM!D58</f>
         <v>78638</v>
       </c>
-      <c r="D56" s="4">
-        <v>100</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="D56" s="6">
+        <v>100</v>
+      </c>
+      <c r="E56" s="6">
         <f t="shared" si="1"/>
         <v>78638</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="6">
         <v>1967</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="6">
         <f>FOLK1AM!D59</f>
         <v>83760</v>
       </c>
-      <c r="D57" s="4">
-        <v>100</v>
-      </c>
-      <c r="E57" s="4">
+      <c r="D57" s="6">
+        <v>100</v>
+      </c>
+      <c r="E57" s="6">
         <f t="shared" si="1"/>
         <v>83760</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
         <v>56</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="6">
         <v>1966</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="6">
         <f>FOLK1AM!D60</f>
         <v>88583</v>
       </c>
-      <c r="D58" s="4">
-        <v>100</v>
-      </c>
-      <c r="E58" s="4">
+      <c r="D58" s="6">
+        <v>100</v>
+      </c>
+      <c r="E58" s="6">
         <f t="shared" si="1"/>
         <v>88583</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="6">
         <v>1965</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="6">
         <f>FOLK1AM!D61</f>
         <v>85289</v>
       </c>
-      <c r="D59" s="4">
-        <v>100</v>
-      </c>
-      <c r="E59" s="4">
+      <c r="D59" s="6">
+        <v>100</v>
+      </c>
+      <c r="E59" s="6">
         <f t="shared" si="1"/>
         <v>85289</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
         <v>58</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="6">
         <v>1964</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="6">
         <f>FOLK1AM!D62</f>
         <v>82385</v>
       </c>
-      <c r="D60" s="4">
-        <v>100</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="D60" s="6">
+        <v>100</v>
+      </c>
+      <c r="E60" s="6">
         <f t="shared" si="1"/>
         <v>82385</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
         <v>59</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="6">
         <v>1963</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="6">
         <f>FOLK1AM!D63</f>
         <v>80282</v>
       </c>
-      <c r="D61" s="4">
-        <v>100</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="D61" s="6">
+        <v>100</v>
+      </c>
+      <c r="E61" s="6">
         <f t="shared" si="1"/>
         <v>80282</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
         <v>60</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="6">
         <v>1962</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="6">
         <f>FOLK1AM!D64</f>
         <v>75718</v>
       </c>
-      <c r="D62" s="4">
-        <v>100</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="D62" s="6">
+        <v>100</v>
+      </c>
+      <c r="E62" s="6">
         <f t="shared" si="1"/>
         <v>75718</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="6">
         <v>1961</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="6">
         <f>FOLK1AM!D65</f>
         <v>72849</v>
       </c>
-      <c r="D63" s="4">
-        <v>100</v>
-      </c>
-      <c r="E63" s="4">
+      <c r="D63" s="6">
+        <v>100</v>
+      </c>
+      <c r="E63" s="6">
         <f t="shared" si="1"/>
         <v>72849</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="6">
         <v>1960</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="6">
         <f>FOLK1AM!D66</f>
         <v>72119</v>
       </c>
-      <c r="D64" s="4">
-        <v>100</v>
-      </c>
-      <c r="E64" s="4">
+      <c r="D64" s="6">
+        <v>100</v>
+      </c>
+      <c r="E64" s="6">
         <f t="shared" si="1"/>
         <v>72119</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="6">
         <v>1959</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="6">
         <f>FOLK1AM!D67</f>
         <v>69084</v>
       </c>
-      <c r="D65" s="4">
-        <v>100</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="D65" s="6">
+        <v>100</v>
+      </c>
+      <c r="E65" s="6">
         <f t="shared" si="1"/>
         <v>69084</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="6">
         <v>1958</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="6">
         <f>FOLK1AM!D68</f>
         <v>68119</v>
       </c>
-      <c r="D66" s="4">
-        <v>100</v>
-      </c>
-      <c r="E66" s="4">
+      <c r="D66" s="6">
+        <v>100</v>
+      </c>
+      <c r="E66" s="6">
         <f t="shared" ref="E66:E97" si="2">D66/100*C66</f>
         <v>68119</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="6">
         <v>1957</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="6">
         <f>FOLK1AM!D69</f>
         <v>67246</v>
       </c>
-      <c r="D67" s="4">
-        <v>100</v>
-      </c>
-      <c r="E67" s="4">
+      <c r="D67" s="6">
+        <v>100</v>
+      </c>
+      <c r="E67" s="6">
         <f t="shared" si="2"/>
         <v>67246</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="6">
         <v>1956</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="6">
         <f>FOLK1AM!D70</f>
         <v>66919</v>
       </c>
-      <c r="D68" s="4">
-        <v>100</v>
-      </c>
-      <c r="E68" s="4">
+      <c r="D68" s="6">
+        <v>100</v>
+      </c>
+      <c r="E68" s="6">
         <f t="shared" si="2"/>
         <v>66919</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="6">
         <v>1955</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="6">
         <f>FOLK1AM!D71</f>
         <v>64815</v>
       </c>
-      <c r="D69" s="4">
-        <v>100</v>
-      </c>
-      <c r="E69" s="4">
+      <c r="D69" s="6">
+        <v>100</v>
+      </c>
+      <c r="E69" s="6">
         <f t="shared" si="2"/>
         <v>64815</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="6">
         <v>1954</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="6">
         <f>FOLK1AM!D72</f>
         <v>63342</v>
       </c>
-      <c r="D70" s="4">
-        <v>100</v>
-      </c>
-      <c r="E70" s="4">
+      <c r="D70" s="6">
+        <v>100</v>
+      </c>
+      <c r="E70" s="6">
         <f t="shared" si="2"/>
         <v>63342</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="6">
         <v>1953</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="6">
         <f>FOLK1AM!D73</f>
         <v>63115</v>
       </c>
-      <c r="D71" s="4">
-        <v>100</v>
-      </c>
-      <c r="E71" s="4">
+      <c r="D71" s="6">
+        <v>100</v>
+      </c>
+      <c r="E71" s="6">
         <f t="shared" si="2"/>
         <v>63115</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="6">
         <v>1952</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="6">
         <f>FOLK1AM!D74</f>
         <v>60803</v>
       </c>
-      <c r="D72" s="4">
-        <v>100</v>
-      </c>
-      <c r="E72" s="4">
+      <c r="D72" s="6">
+        <v>100</v>
+      </c>
+      <c r="E72" s="6">
         <f t="shared" si="2"/>
         <v>60803</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="6">
         <v>1951</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="6">
         <f>FOLK1AM!D75</f>
         <v>59089</v>
       </c>
-      <c r="D73" s="4">
-        <v>100</v>
-      </c>
-      <c r="E73" s="4">
+      <c r="D73" s="6">
+        <v>100</v>
+      </c>
+      <c r="E73" s="6">
         <f t="shared" si="2"/>
         <v>59089</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
         <v>72</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="6">
         <v>1950</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="6">
         <f>FOLK1AM!D76</f>
         <v>59971</v>
       </c>
-      <c r="D74" s="4">
-        <v>100</v>
-      </c>
-      <c r="E74" s="4">
+      <c r="D74" s="6">
+        <v>100</v>
+      </c>
+      <c r="E74" s="6">
         <f t="shared" si="2"/>
         <v>59971</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
         <v>73</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="6">
         <v>1949</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="6">
         <f>FOLK1AM!D77</f>
         <v>58651</v>
       </c>
-      <c r="D75" s="4">
-        <v>100</v>
-      </c>
-      <c r="E75" s="4">
+      <c r="D75" s="6">
+        <v>100</v>
+      </c>
+      <c r="E75" s="6">
         <f t="shared" si="2"/>
         <v>58651</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
         <v>74</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="6">
         <v>1948</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="6">
         <f>FOLK1AM!D78</f>
         <v>60521</v>
       </c>
-      <c r="D76" s="4">
-        <v>100</v>
-      </c>
-      <c r="E76" s="4">
+      <c r="D76" s="6">
+        <v>100</v>
+      </c>
+      <c r="E76" s="6">
         <f t="shared" si="2"/>
         <v>60521</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
         <v>75</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="6">
         <v>1947</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="6">
         <f>FOLK1AM!D79</f>
         <v>62894</v>
       </c>
-      <c r="D77" s="4">
-        <v>100</v>
-      </c>
-      <c r="E77" s="4">
+      <c r="D77" s="6">
+        <v>100</v>
+      </c>
+      <c r="E77" s="6">
         <f t="shared" si="2"/>
         <v>62894</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
         <v>76</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="6">
         <v>1946</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="6">
         <f>FOLK1AM!D80</f>
         <v>63063</v>
       </c>
-      <c r="D78" s="4">
-        <v>100</v>
-      </c>
-      <c r="E78" s="4">
+      <c r="D78" s="6">
+        <v>100</v>
+      </c>
+      <c r="E78" s="6">
         <f t="shared" si="2"/>
         <v>63063</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
         <v>77</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="6">
         <v>1945</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="6">
         <f>FOLK1AM!D81</f>
         <v>58358</v>
       </c>
-      <c r="D79" s="4">
-        <v>100</v>
-      </c>
-      <c r="E79" s="4">
+      <c r="D79" s="6">
+        <v>100</v>
+      </c>
+      <c r="E79" s="6">
         <f t="shared" si="2"/>
         <v>58358</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
         <v>78</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="6">
         <v>1944</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="6">
         <f>FOLK1AM!D82</f>
         <v>53184</v>
       </c>
-      <c r="D80" s="4">
-        <v>100</v>
-      </c>
-      <c r="E80" s="4">
+      <c r="D80" s="6">
+        <v>100</v>
+      </c>
+      <c r="E80" s="6">
         <f t="shared" si="2"/>
         <v>53184</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
         <v>79</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="6">
         <v>1943</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="6">
         <f>FOLK1AM!D83</f>
         <v>47128</v>
       </c>
-      <c r="D81" s="4">
-        <v>100</v>
-      </c>
-      <c r="E81" s="4">
+      <c r="D81" s="6">
+        <v>100</v>
+      </c>
+      <c r="E81" s="6">
         <f t="shared" si="2"/>
         <v>47128</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
         <v>80</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="6">
         <v>1942</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="6">
         <f>FOLK1AM!D84</f>
         <v>42494</v>
       </c>
-      <c r="D82" s="4">
-        <v>100</v>
-      </c>
-      <c r="E82" s="4">
+      <c r="D82" s="6">
+        <v>100</v>
+      </c>
+      <c r="E82" s="6">
         <f t="shared" si="2"/>
         <v>42494</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
         <v>81</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="6">
         <v>1941</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="6">
         <f>FOLK1AM!D85</f>
         <v>36131</v>
       </c>
-      <c r="D83" s="4">
-        <v>100</v>
-      </c>
-      <c r="E83" s="4">
+      <c r="D83" s="6">
+        <v>100</v>
+      </c>
+      <c r="E83" s="6">
         <f t="shared" si="2"/>
         <v>36131</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="H83" s="13"/>
+    </row>
+    <row r="84" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
         <v>82</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="6">
         <v>1940</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="6">
         <f>FOLK1AM!D86</f>
         <v>33354</v>
       </c>
-      <c r="D84" s="4">
-        <v>100</v>
-      </c>
-      <c r="E84" s="4">
+      <c r="D84" s="6">
+        <v>100</v>
+      </c>
+      <c r="E84" s="6">
         <f t="shared" si="2"/>
         <v>33354</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="H84" s="13"/>
+    </row>
+    <row r="85" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
         <v>83</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="6">
         <v>1939</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="6">
         <f>FOLK1AM!D87</f>
         <v>29877</v>
       </c>
-      <c r="D85" s="4">
-        <v>100</v>
-      </c>
-      <c r="E85" s="4">
+      <c r="D85" s="6">
+        <v>100</v>
+      </c>
+      <c r="E85" s="6">
         <f t="shared" si="2"/>
         <v>29877</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
         <v>84</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="6">
         <v>1938</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="6">
         <f>FOLK1AM!D88</f>
         <v>27412</v>
       </c>
-      <c r="D86" s="4">
-        <v>100</v>
-      </c>
-      <c r="E86" s="4">
+      <c r="D86" s="6">
+        <v>100</v>
+      </c>
+      <c r="E86" s="6">
         <f t="shared" si="2"/>
         <v>27412</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="H86" s="13"/>
+    </row>
+    <row r="87" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
         <v>85</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="6">
         <v>1937</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="6">
         <f>FOLK1AM!D89</f>
         <v>23908</v>
       </c>
-      <c r="D87" s="4">
-        <v>100</v>
-      </c>
-      <c r="E87" s="4">
+      <c r="D87" s="6">
+        <v>100</v>
+      </c>
+      <c r="E87" s="6">
         <f t="shared" si="2"/>
         <v>23908</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
         <v>86</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="6">
         <v>1936</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="6">
         <f>FOLK1AM!D90</f>
         <v>20633</v>
       </c>
-      <c r="D88" s="4">
-        <v>100</v>
-      </c>
-      <c r="E88" s="4">
+      <c r="D88" s="6">
+        <v>100</v>
+      </c>
+      <c r="E88" s="6">
         <f t="shared" si="2"/>
         <v>20633</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="6">
         <v>1935</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="6">
         <f>FOLK1AM!D91</f>
         <v>17462</v>
       </c>
-      <c r="D89" s="4">
-        <v>100</v>
-      </c>
-      <c r="E89" s="4">
+      <c r="D89" s="6">
+        <v>100</v>
+      </c>
+      <c r="E89" s="6">
         <f t="shared" si="2"/>
         <v>17462</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="H89" s="13"/>
+    </row>
+    <row r="90" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
         <v>88</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="6">
         <v>1934</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="6">
         <f>FOLK1AM!D92</f>
         <v>14873</v>
       </c>
-      <c r="D90" s="4">
-        <v>100</v>
-      </c>
-      <c r="E90" s="4">
+      <c r="D90" s="6">
+        <v>100</v>
+      </c>
+      <c r="E90" s="6">
         <f t="shared" si="2"/>
         <v>14873</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="H90" s="13"/>
+    </row>
+    <row r="91" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
         <v>89</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="6">
         <v>1933</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="6">
         <f>FOLK1AM!D93</f>
         <v>12227</v>
       </c>
-      <c r="D91" s="4">
-        <v>100</v>
-      </c>
-      <c r="E91" s="4">
+      <c r="D91" s="6">
+        <v>100</v>
+      </c>
+      <c r="E91" s="6">
         <f t="shared" si="2"/>
         <v>12227</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="H91" s="13"/>
+    </row>
+    <row r="92" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
         <v>90</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="6">
         <v>1932</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="6">
         <f>FOLK1AM!D94</f>
         <v>10183</v>
       </c>
-      <c r="D92" s="4">
-        <v>100</v>
-      </c>
-      <c r="E92" s="4">
+      <c r="D92" s="6">
+        <v>100</v>
+      </c>
+      <c r="E92" s="6">
         <f t="shared" si="2"/>
         <v>10183</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="H92" s="13"/>
+    </row>
+    <row r="93" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="6">
         <v>1931</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="6">
         <f>FOLK1AM!D95</f>
         <v>8363</v>
       </c>
-      <c r="D93" s="4">
-        <v>100</v>
-      </c>
-      <c r="E93" s="4">
+      <c r="D93" s="6">
+        <v>100</v>
+      </c>
+      <c r="E93" s="6">
         <f t="shared" si="2"/>
         <v>8363</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
         <v>92</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="6">
         <v>1930</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="6">
         <f>FOLK1AM!D96</f>
         <v>6852</v>
       </c>
-      <c r="D94" s="4">
-        <v>100</v>
-      </c>
-      <c r="E94" s="4">
+      <c r="D94" s="6">
+        <v>100</v>
+      </c>
+      <c r="E94" s="6">
         <f t="shared" si="2"/>
         <v>6852</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+      <c r="H94" s="13"/>
+    </row>
+    <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
         <v>93</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="6">
         <v>1929</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="6">
         <f>FOLK1AM!D97</f>
         <v>5415</v>
       </c>
-      <c r="D95" s="4">
-        <v>100</v>
-      </c>
-      <c r="E95" s="4">
+      <c r="D95" s="6">
+        <v>100</v>
+      </c>
+      <c r="E95" s="6">
         <f t="shared" si="2"/>
         <v>5415</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
         <v>94</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="6">
         <v>1928</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="6">
         <f>FOLK1AM!D98</f>
         <v>4324</v>
       </c>
-      <c r="D96" s="4">
-        <v>100</v>
-      </c>
-      <c r="E96" s="4">
+      <c r="D96" s="6">
+        <v>100</v>
+      </c>
+      <c r="E96" s="6">
         <f t="shared" si="2"/>
         <v>4324</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="H96" s="13"/>
+    </row>
+    <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
         <v>95</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="6">
         <v>1927</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="6">
         <f>FOLK1AM!D99</f>
         <v>3131</v>
       </c>
-      <c r="D97" s="4">
-        <v>100</v>
-      </c>
-      <c r="E97" s="4">
+      <c r="D97" s="6">
+        <v>100</v>
+      </c>
+      <c r="E97" s="6">
         <f t="shared" si="2"/>
         <v>3131</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+      <c r="H97" s="13"/>
+    </row>
+    <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
         <v>96</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="6">
         <v>1926</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="6">
         <f>FOLK1AM!D100</f>
         <v>2381</v>
       </c>
-      <c r="D98" s="4">
-        <v>100</v>
-      </c>
-      <c r="E98" s="4">
+      <c r="D98" s="6">
+        <v>100</v>
+      </c>
+      <c r="E98" s="6">
         <f t="shared" ref="E98:E129" si="3">D98/100*C98</f>
         <v>2381</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
         <v>97</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="6">
         <v>1925</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="6">
         <f>FOLK1AM!D101</f>
         <v>1732</v>
       </c>
-      <c r="D99" s="4">
-        <v>100</v>
-      </c>
-      <c r="E99" s="4">
+      <c r="D99" s="6">
+        <v>100</v>
+      </c>
+      <c r="E99" s="6">
         <f t="shared" si="3"/>
         <v>1732</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+      <c r="H99" s="13"/>
+    </row>
+    <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
         <v>98</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="6">
         <v>1924</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="6">
         <f>FOLK1AM!D102</f>
         <v>1242</v>
       </c>
-      <c r="D100" s="4">
-        <v>100</v>
-      </c>
-      <c r="E100" s="4">
+      <c r="D100" s="6">
+        <v>100</v>
+      </c>
+      <c r="E100" s="6">
         <f t="shared" si="3"/>
         <v>1242</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+      <c r="H100" s="13"/>
+    </row>
+    <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
         <v>99</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="6">
         <v>1923</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="6">
         <f>FOLK1AM!D103</f>
         <v>790</v>
       </c>
-      <c r="D101" s="4">
-        <v>100</v>
-      </c>
-      <c r="E101" s="4">
+      <c r="D101" s="6">
+        <v>100</v>
+      </c>
+      <c r="E101" s="6">
         <f t="shared" si="3"/>
         <v>790</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <v>100</v>
-      </c>
-      <c r="B102" s="4">
+      <c r="H101" s="13"/>
+    </row>
+    <row r="102" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>100</v>
+      </c>
+      <c r="B102" s="6">
         <v>1922</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="6">
         <f>FOLK1AM!D104</f>
         <v>437</v>
       </c>
-      <c r="D102" s="4">
-        <v>100</v>
-      </c>
-      <c r="E102" s="4">
+      <c r="D102" s="6">
+        <v>100</v>
+      </c>
+      <c r="E102" s="6">
         <f t="shared" si="3"/>
         <v>437</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+      <c r="H102" s="13"/>
+    </row>
+    <row r="103" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
         <v>101</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="6">
         <v>1921</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="6">
         <f>FOLK1AM!D105</f>
         <v>331</v>
       </c>
-      <c r="D103" s="4">
-        <v>100</v>
-      </c>
-      <c r="E103" s="4">
+      <c r="D103" s="6">
+        <v>100</v>
+      </c>
+      <c r="E103" s="6">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
         <v>102</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="6">
         <v>1920</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="6">
         <f>FOLK1AM!D106</f>
         <v>198</v>
       </c>
-      <c r="D104" s="4">
-        <v>100</v>
-      </c>
-      <c r="E104" s="4">
+      <c r="D104" s="6">
+        <v>100</v>
+      </c>
+      <c r="E104" s="6">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
         <v>103</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="6">
         <v>1919</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="6">
         <f>FOLK1AM!D107</f>
         <v>95</v>
       </c>
-      <c r="D105" s="4">
-        <v>100</v>
-      </c>
-      <c r="E105" s="4">
+      <c r="D105" s="6">
+        <v>100</v>
+      </c>
+      <c r="E105" s="6">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
         <v>104</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="6">
         <v>1918</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="6">
         <f>FOLK1AM!D108</f>
         <v>51</v>
       </c>
-      <c r="D106" s="4">
-        <v>100</v>
-      </c>
-      <c r="E106" s="4">
+      <c r="D106" s="6">
+        <v>100</v>
+      </c>
+      <c r="E106" s="6">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+      <c r="H106" s="13"/>
+    </row>
+    <row r="107" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
         <v>105</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="6">
         <v>1917</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="6">
         <f>FOLK1AM!D109</f>
         <v>21</v>
       </c>
-      <c r="D107" s="4">
-        <v>100</v>
-      </c>
-      <c r="E107" s="4">
+      <c r="D107" s="6">
+        <v>100</v>
+      </c>
+      <c r="E107" s="6">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+      <c r="H107" s="13"/>
+    </row>
+    <row r="108" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
         <v>106</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="6">
         <v>1916</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="6">
         <f>FOLK1AM!D110</f>
         <v>14</v>
       </c>
-      <c r="D108" s="4">
-        <v>100</v>
-      </c>
-      <c r="E108" s="4">
+      <c r="D108" s="6">
+        <v>100</v>
+      </c>
+      <c r="E108" s="6">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+      <c r="H108" s="13"/>
+    </row>
+    <row r="109" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
         <v>107</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="6">
         <v>1915</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="6">
         <f>FOLK1AM!D111</f>
         <v>6</v>
       </c>
-      <c r="D109" s="4">
-        <v>100</v>
-      </c>
-      <c r="E109" s="4">
+      <c r="D109" s="6">
+        <v>100</v>
+      </c>
+      <c r="E109" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+      <c r="H109" s="13"/>
+    </row>
+    <row r="110" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
         <v>108</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="6">
         <v>1914</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="6">
         <f>FOLK1AM!D112</f>
         <v>4</v>
       </c>
-      <c r="D110" s="4">
-        <v>100</v>
-      </c>
-      <c r="E110" s="4">
+      <c r="D110" s="6">
+        <v>100</v>
+      </c>
+      <c r="E110" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="H110" s="13"/>
+    </row>
+    <row r="111" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
         <v>109</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="6">
         <v>1913</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="6">
         <f>FOLK1AM!D113</f>
         <v>1</v>
       </c>
-      <c r="D111" s="4">
-        <v>100</v>
-      </c>
-      <c r="E111" s="4">
+      <c r="D111" s="6">
+        <v>100</v>
+      </c>
+      <c r="E111" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+      <c r="H111" s="13"/>
+    </row>
+    <row r="112" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
         <v>110</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="6">
         <v>1912</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="6">
         <f>FOLK1AM!D114</f>
         <v>0</v>
       </c>
-      <c r="D112" s="4">
-        <v>100</v>
-      </c>
-      <c r="E112" s="4">
+      <c r="D112" s="6">
+        <v>100</v>
+      </c>
+      <c r="E112" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+      <c r="H112" s="13"/>
+    </row>
+    <row r="113" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
         <v>111</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="6">
         <v>1911</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="6">
         <f>FOLK1AM!D115</f>
         <v>0</v>
       </c>
-      <c r="D113" s="4">
-        <v>100</v>
-      </c>
-      <c r="E113" s="4">
+      <c r="D113" s="6">
+        <v>100</v>
+      </c>
+      <c r="E113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+      <c r="H113" s="13"/>
+    </row>
+    <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
         <v>112</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="6">
         <v>1910</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="6">
         <f>FOLK1AM!D116</f>
         <v>1</v>
       </c>
-      <c r="D114" s="4">
-        <v>100</v>
-      </c>
-      <c r="E114" s="4">
+      <c r="D114" s="6">
+        <v>100</v>
+      </c>
+      <c r="E114" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+      <c r="H114" s="13"/>
+    </row>
+    <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
         <v>113</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="6">
         <v>1909</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="6">
         <f>FOLK1AM!D117</f>
         <v>0</v>
       </c>
-      <c r="D115" s="4">
-        <v>100</v>
-      </c>
-      <c r="E115" s="4">
+      <c r="D115" s="6">
+        <v>100</v>
+      </c>
+      <c r="E115" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+      <c r="H115" s="13"/>
+    </row>
+    <row r="116" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
         <v>114</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="6">
         <v>1908</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="6">
         <f>FOLK1AM!D118</f>
         <v>0</v>
       </c>
-      <c r="D116" s="4">
-        <v>100</v>
-      </c>
-      <c r="E116" s="4">
+      <c r="D116" s="6">
+        <v>100</v>
+      </c>
+      <c r="E116" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+      <c r="H116" s="13"/>
+    </row>
+    <row r="117" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
         <v>115</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="6">
         <v>1907</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="6">
         <f>FOLK1AM!D119</f>
         <v>0</v>
       </c>
-      <c r="D117" s="4">
-        <v>100</v>
-      </c>
-      <c r="E117" s="4">
+      <c r="D117" s="6">
+        <v>100</v>
+      </c>
+      <c r="E117" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="H117" s="13"/>
+    </row>
+    <row r="118" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
         <v>116</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="6">
         <v>1906</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="6">
         <f>FOLK1AM!D120</f>
         <v>0</v>
       </c>
-      <c r="D118" s="4">
-        <v>100</v>
-      </c>
-      <c r="E118" s="4">
+      <c r="D118" s="6">
+        <v>100</v>
+      </c>
+      <c r="E118" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+      <c r="H118" s="13"/>
+    </row>
+    <row r="119" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
         <v>117</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="6">
         <v>1905</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="6">
         <f>FOLK1AM!D121</f>
         <v>0</v>
       </c>
-      <c r="D119" s="4">
-        <v>100</v>
-      </c>
-      <c r="E119" s="4">
+      <c r="D119" s="6">
+        <v>100</v>
+      </c>
+      <c r="E119" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+      <c r="H119" s="13"/>
+    </row>
+    <row r="120" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
         <v>118</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="6">
         <v>1904</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="6">
         <f>FOLK1AM!D122</f>
         <v>0</v>
       </c>
-      <c r="D120" s="4">
-        <v>100</v>
-      </c>
-      <c r="E120" s="4">
+      <c r="D120" s="6">
+        <v>100</v>
+      </c>
+      <c r="E120" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+      <c r="H120" s="13"/>
+    </row>
+    <row r="121" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
         <v>119</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="6">
         <v>1903</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="6">
         <f>FOLK1AM!D123</f>
         <v>0</v>
       </c>
-      <c r="D121" s="4">
-        <v>100</v>
-      </c>
-      <c r="E121" s="4">
+      <c r="D121" s="6">
+        <v>100</v>
+      </c>
+      <c r="E121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+      <c r="H121" s="13"/>
+    </row>
+    <row r="122" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
         <v>120</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="6">
         <v>1902</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="6">
         <f>FOLK1AM!D124</f>
         <v>0</v>
       </c>
-      <c r="D122" s="4">
-        <v>100</v>
-      </c>
-      <c r="E122" s="4">
+      <c r="D122" s="6">
+        <v>100</v>
+      </c>
+      <c r="E122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H122" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3341,1040 +3475,1045 @@
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="3"/>
       <c r="H1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>59155</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>64097</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>62172</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>62749</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>62912</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>62836</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>63632</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>60499</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>60059</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>59599</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>61860</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>63470</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>67931</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>67291</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>69758</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>68991</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>70136</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>69299</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>69420</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <v>69984</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <v>71622</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="6">
         <v>74269</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <v>76597</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
         <v>76916</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="6">
         <v>78037</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="6">
         <v>80561</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="6">
         <v>80474</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="6">
         <v>83793</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="6">
         <v>83449</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="6">
         <v>81629</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="6">
         <v>82352</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="6">
         <v>79727</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="6">
         <v>79752</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="6">
         <v>77418</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="6">
         <v>75124</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="6">
         <v>72116</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="6">
         <v>71146</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="6">
         <v>69188</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="6">
         <v>66968</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="6">
         <v>65660</v>
       </c>
     </row>
     <row r="44" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
         <v>66626</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
         <v>66205</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="6">
         <v>69810</v>
       </c>
     </row>
     <row r="47" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="6">
         <v>70647</v>
       </c>
     </row>
     <row r="48" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="6">
         <v>72363</v>
       </c>
     </row>
     <row r="49" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="6">
         <v>71525</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="6">
         <v>74897</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="6">
         <v>79710</v>
       </c>
     </row>
     <row r="52" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="6">
         <v>78605</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="6">
         <v>78092</v>
       </c>
     </row>
     <row r="54" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="6">
         <v>81455</v>
       </c>
     </row>
     <row r="55" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="6">
         <v>79672</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="6">
         <v>75939</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="6">
         <v>75940</v>
       </c>
     </row>
     <row r="58" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="6">
         <v>78638</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="6">
         <v>83760</v>
       </c>
     </row>
     <row r="60" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="6">
         <v>88583</v>
       </c>
     </row>
     <row r="61" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="6">
         <v>85289</v>
       </c>
     </row>
     <row r="62" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="6">
         <v>82385</v>
       </c>
     </row>
     <row r="63" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="6">
         <v>80282</v>
       </c>
     </row>
     <row r="64" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="6">
         <v>75718</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="6">
         <v>72849</v>
       </c>
     </row>
     <row r="66" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="6">
         <v>72119</v>
       </c>
     </row>
     <row r="67" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="6">
         <v>69084</v>
       </c>
     </row>
     <row r="68" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="6">
         <v>68119</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="6">
         <v>67246</v>
       </c>
     </row>
     <row r="70" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="6">
         <v>66919</v>
       </c>
     </row>
     <row r="71" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="6">
         <v>64815</v>
       </c>
     </row>
     <row r="72" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="6">
         <v>63342</v>
       </c>
     </row>
     <row r="73" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="6">
         <v>63115</v>
       </c>
     </row>
     <row r="74" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="6">
         <v>60803</v>
       </c>
     </row>
     <row r="75" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="6">
         <v>59089</v>
       </c>
     </row>
     <row r="76" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="6">
         <v>59971</v>
       </c>
     </row>
     <row r="77" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="6">
         <v>58651</v>
       </c>
     </row>
     <row r="78" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="6">
         <v>60521</v>
       </c>
     </row>
     <row r="79" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="6">
         <v>62894</v>
       </c>
     </row>
     <row r="80" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="6">
         <v>63063</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="6">
         <v>58358</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="6">
         <v>53184</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="6">
         <v>47128</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="6">
         <v>42494</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="6">
         <v>36131</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="6">
         <v>33354</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="6">
         <v>29877</v>
       </c>
     </row>
     <row r="88" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="6">
         <v>27412</v>
       </c>
     </row>
     <row r="89" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D89" s="4">
+      <c r="C89" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="6">
         <v>23908</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="6">
         <v>20633</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="6">
         <v>17462</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="6">
         <v>14873</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="6">
         <v>12227</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="6">
         <v>10183</v>
       </c>
     </row>
     <row r="95" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="6">
         <v>8363</v>
       </c>
     </row>
     <row r="96" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="6">
         <v>6852</v>
       </c>
     </row>
     <row r="97" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="6">
         <v>5415</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="6">
         <v>4324</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="6">
         <v>3131</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="6">
         <v>2381</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="6">
         <v>1732</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="6">
         <v>1242</v>
       </c>
     </row>
     <row r="103" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="6">
         <v>790</v>
       </c>
     </row>
     <row r="104" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="6">
         <v>437</v>
       </c>
     </row>
     <row r="105" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="6">
         <v>331</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="6">
         <v>198</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="6">
         <v>95</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="6">
         <v>51</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="113" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4394,15 +4533,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
@@ -4410,90 +4549,90 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>1997</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>1996</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>1995</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>1994</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>1993</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>1992</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>1991</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>1990</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>1989</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>1988</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>1987</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>82</v>
       </c>
     </row>
@@ -4513,8 +4652,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="28" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="28" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4522,88 +4662,141 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
       <c r="AC1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+    </row>
     <row r="3" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>1998</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1999</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>2000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>2001</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>2002</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>2003</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>2004</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>2005</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <v>2006</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <v>2007</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="4">
         <v>2008</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="4">
         <v>2009</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="4">
         <v>2010</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="4">
         <v>2011</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="4">
         <v>2012</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="4">
         <v>2013</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="4">
         <v>2014</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="4">
         <v>2015</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="4">
         <v>2016</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="4">
         <v>2017</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="4">
         <v>2018</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="4">
         <v>2019</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="4">
         <v>2020</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="4">
         <v>2021</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="4">
         <v>2022</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="4">
         <v>2023</v>
       </c>
     </row>
@@ -4614,82 +4807,82 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>86</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>88</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>88</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>85</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>87</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>89</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>90</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>89</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>89</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <v>89</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="4">
         <v>89</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="4">
         <v>90</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="4">
         <v>90</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="4">
         <v>91</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="4">
         <v>92</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="4">
         <v>93</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="4">
         <v>94</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="4">
         <v>95</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="4">
         <v>95</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="4">
         <v>94</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="4">
         <v>93</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="4">
         <v>94</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="4">
         <v>94</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="4">
         <v>94</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="4">
         <v>94</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="4">
         <v>43</v>
       </c>
     </row>
@@ -4697,82 +4890,82 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>59884</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>60523</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>61334</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>60113</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>59492</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>60796</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>61278</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>60732</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <v>61478</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4">
         <v>60309</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="4">
         <v>61528</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4">
         <v>59591</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="4">
         <v>60393</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="4">
         <v>56314</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="4">
         <v>55823</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="4">
         <v>54267</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="4">
         <v>55377</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="4">
         <v>56638</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="4">
         <v>59542</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="4">
         <v>59280</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="4">
         <v>58437</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="4">
         <v>58612</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="4">
         <v>58873</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="4">
         <v>60958</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="4">
         <v>55602</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="4">
         <v>24714</v>
       </c>
     </row>
@@ -4780,82 +4973,82 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>69681</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>69162</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>69740</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>70710</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>68672</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>68424</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>68375</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>68316</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>68936</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <v>68016</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="4">
         <v>68886</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <v>66490</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="4">
         <v>66758</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="4">
         <v>62186</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>60959</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="4">
         <v>58595</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="4">
         <v>59126</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="4">
         <v>59784</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="4">
         <v>62859</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="4">
         <v>62990</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="4">
         <v>62844</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="4">
         <v>62685</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="4">
         <v>62574</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="4">
         <v>64711</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="4">
         <v>59301</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="4">
         <v>58036</v>
       </c>
     </row>

--- a/MMR1_cov_dk_2022.xlsx
+++ b/MMR1_cov_dk_2022.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/Library/CloudStorage/OneDrive-RoskildeUniversitet/Dokumenter/measles-network-DK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rucdk-my.sharepoint.com/personal/alfredb_ruc_dk/Documents/Dokumenter/measles-network-DK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7259DA-78F6-824C-8532-813673566AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{7D7259DA-78F6-824C-8532-813673566AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{129CC2AD-C0EF-A346-B032-43E9FA3BA8C6}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="19380" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1100" yWindow="-28300" windowWidth="19380" windowHeight="13720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="FOLK1AM" sheetId="2" r:id="rId2"/>
     <sheet name="EPINYT87-97" sheetId="3" r:id="rId3"/>
-    <sheet name="SSI_cov98-2022" sheetId="4" r:id="rId4"/>
+    <sheet name="Geo_coverage" sheetId="5" r:id="rId4"/>
+    <sheet name="SSI_cov98-2022" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="175">
   <si>
     <t>Andel vaccineret med MFR 1, F¯dselsÂr: 1998-2023</t>
   </si>
@@ -495,6 +496,72 @@
   </si>
   <si>
     <t>percentage vax</t>
+  </si>
+  <si>
+    <t>Vacc. Rate pr. amt</t>
+  </si>
+  <si>
+    <t>Kbh.+Frb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Københvans </t>
+  </si>
+  <si>
+    <t>Roskilde</t>
+  </si>
+  <si>
+    <t>Vestsjælland</t>
+  </si>
+  <si>
+    <t>Storstrøms</t>
+  </si>
+  <si>
+    <t>Bornholms</t>
+  </si>
+  <si>
+    <t>Fyns</t>
+  </si>
+  <si>
+    <t>Sønder jylland</t>
+  </si>
+  <si>
+    <t>Ribe</t>
+  </si>
+  <si>
+    <t>Vejle</t>
+  </si>
+  <si>
+    <t>Ringkøbing</t>
+  </si>
+  <si>
+    <t>Århus</t>
+  </si>
+  <si>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>Nordjylland</t>
+  </si>
+  <si>
+    <t>% of 15 mo. Year olds</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Københavns Komm.</t>
+  </si>
+  <si>
+    <t>Frederiksberg komm.</t>
+  </si>
+  <si>
+    <t>Frederiksborg</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Source: EPI-NYT</t>
   </si>
 </sst>
 </file>
@@ -928,7 +995,7 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2972,7 +3039,7 @@
         <v>100</v>
       </c>
       <c r="E98" s="6">
-        <f t="shared" ref="E98:E129" si="3">D98/100*C98</f>
+        <f t="shared" ref="E98:E122" si="3">D98/100*C98</f>
         <v>2381</v>
       </c>
       <c r="H98" s="13"/>
@@ -4642,6 +4709,689 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446039B5-6063-EA4F-8746-930F8EFA48C7}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1987</v>
+      </c>
+      <c r="B3">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <f>B3</f>
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <f>B3</f>
+        <v>79</v>
+      </c>
+      <c r="E3">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>88</v>
+      </c>
+      <c r="H3">
+        <v>84</v>
+      </c>
+      <c r="I3">
+        <v>84</v>
+      </c>
+      <c r="J3">
+        <v>89</v>
+      </c>
+      <c r="K3">
+        <v>85</v>
+      </c>
+      <c r="L3">
+        <v>878</v>
+      </c>
+      <c r="M3">
+        <v>83</v>
+      </c>
+      <c r="N3">
+        <v>87</v>
+      </c>
+      <c r="O3">
+        <v>82</v>
+      </c>
+      <c r="P3">
+        <v>81</v>
+      </c>
+      <c r="Q3">
+        <v>78</v>
+      </c>
+      <c r="R3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1988</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N4" t="s">
+        <v>173</v>
+      </c>
+      <c r="O4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1989</v>
+      </c>
+      <c r="B5">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <f>B5</f>
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <f>B5</f>
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>81</v>
+      </c>
+      <c r="H5">
+        <v>82</v>
+      </c>
+      <c r="I5">
+        <v>75</v>
+      </c>
+      <c r="J5">
+        <v>87</v>
+      </c>
+      <c r="K5">
+        <v>81</v>
+      </c>
+      <c r="L5">
+        <v>83</v>
+      </c>
+      <c r="M5">
+        <v>85</v>
+      </c>
+      <c r="N5">
+        <v>85</v>
+      </c>
+      <c r="O5">
+        <v>80</v>
+      </c>
+      <c r="P5">
+        <v>82</v>
+      </c>
+      <c r="Q5">
+        <v>80</v>
+      </c>
+      <c r="R5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1990</v>
+      </c>
+      <c r="B6">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <f>B6</f>
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <f>B6</f>
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <v>86</v>
+      </c>
+      <c r="F6">
+        <v>82</v>
+      </c>
+      <c r="G6">
+        <v>93</v>
+      </c>
+      <c r="H6">
+        <v>86</v>
+      </c>
+      <c r="I6">
+        <v>81</v>
+      </c>
+      <c r="J6">
+        <v>83</v>
+      </c>
+      <c r="K6">
+        <v>84</v>
+      </c>
+      <c r="L6">
+        <v>85</v>
+      </c>
+      <c r="M6">
+        <v>89</v>
+      </c>
+      <c r="N6">
+        <v>85</v>
+      </c>
+      <c r="O6">
+        <v>81</v>
+      </c>
+      <c r="P6">
+        <v>85</v>
+      </c>
+      <c r="Q6">
+        <v>83</v>
+      </c>
+      <c r="R6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1991</v>
+      </c>
+      <c r="C7">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>84</v>
+      </c>
+      <c r="G7">
+        <v>88</v>
+      </c>
+      <c r="H7">
+        <v>86</v>
+      </c>
+      <c r="I7">
+        <v>82</v>
+      </c>
+      <c r="J7">
+        <v>92</v>
+      </c>
+      <c r="K7">
+        <v>83</v>
+      </c>
+      <c r="L7">
+        <v>86</v>
+      </c>
+      <c r="M7">
+        <v>88</v>
+      </c>
+      <c r="N7">
+        <v>86</v>
+      </c>
+      <c r="O7">
+        <v>88</v>
+      </c>
+      <c r="P7">
+        <v>86</v>
+      </c>
+      <c r="Q7">
+        <v>84</v>
+      </c>
+      <c r="R7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1992</v>
+      </c>
+      <c r="C8">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <v>85</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>87</v>
+      </c>
+      <c r="H8">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <v>82</v>
+      </c>
+      <c r="J8">
+        <v>85</v>
+      </c>
+      <c r="K8">
+        <v>86</v>
+      </c>
+      <c r="L8">
+        <v>84</v>
+      </c>
+      <c r="M8">
+        <v>92</v>
+      </c>
+      <c r="N8">
+        <v>88</v>
+      </c>
+      <c r="O8">
+        <v>90</v>
+      </c>
+      <c r="P8">
+        <v>86</v>
+      </c>
+      <c r="Q8">
+        <v>86</v>
+      </c>
+      <c r="R8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1993</v>
+      </c>
+      <c r="C9">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>78</v>
+      </c>
+      <c r="J9">
+        <v>91</v>
+      </c>
+      <c r="K9">
+        <v>81</v>
+      </c>
+      <c r="L9">
+        <v>85</v>
+      </c>
+      <c r="M9">
+        <v>82</v>
+      </c>
+      <c r="N9">
+        <v>86</v>
+      </c>
+      <c r="O9">
+        <v>82</v>
+      </c>
+      <c r="P9">
+        <v>81</v>
+      </c>
+      <c r="Q9">
+        <v>79</v>
+      </c>
+      <c r="R9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1994</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <v>87</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>91</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>87</v>
+      </c>
+      <c r="J10">
+        <v>93</v>
+      </c>
+      <c r="K10">
+        <v>89</v>
+      </c>
+      <c r="L10">
+        <v>88</v>
+      </c>
+      <c r="M10">
+        <v>92</v>
+      </c>
+      <c r="N10">
+        <v>93</v>
+      </c>
+      <c r="O10">
+        <v>89</v>
+      </c>
+      <c r="P10">
+        <v>89</v>
+      </c>
+      <c r="Q10">
+        <v>91</v>
+      </c>
+      <c r="R10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1995</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>93</v>
+      </c>
+      <c r="G11">
+        <v>89</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="I11">
+        <v>86</v>
+      </c>
+      <c r="J11">
+        <v>95</v>
+      </c>
+      <c r="K11">
+        <v>90</v>
+      </c>
+      <c r="L11">
+        <v>90</v>
+      </c>
+      <c r="M11">
+        <v>90</v>
+      </c>
+      <c r="N11">
+        <v>89</v>
+      </c>
+      <c r="O11">
+        <v>90</v>
+      </c>
+      <c r="P11">
+        <v>88</v>
+      </c>
+      <c r="Q11">
+        <v>87</v>
+      </c>
+      <c r="R11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1996</v>
+      </c>
+      <c r="C12">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <v>72</v>
+      </c>
+      <c r="E12">
+        <v>85</v>
+      </c>
+      <c r="F12">
+        <v>87</v>
+      </c>
+      <c r="G12">
+        <v>85</v>
+      </c>
+      <c r="H12">
+        <v>85</v>
+      </c>
+      <c r="I12">
+        <v>81</v>
+      </c>
+      <c r="J12">
+        <v>92</v>
+      </c>
+      <c r="K12">
+        <v>85</v>
+      </c>
+      <c r="L12">
+        <v>89</v>
+      </c>
+      <c r="M12">
+        <v>87</v>
+      </c>
+      <c r="N12">
+        <v>86</v>
+      </c>
+      <c r="O12">
+        <v>88</v>
+      </c>
+      <c r="P12">
+        <v>89</v>
+      </c>
+      <c r="Q12">
+        <v>86</v>
+      </c>
+      <c r="R12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1997</v>
+      </c>
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>81</v>
+      </c>
+      <c r="E13">
+        <v>85</v>
+      </c>
+      <c r="F13">
+        <v>82</v>
+      </c>
+      <c r="G13">
+        <v>87</v>
+      </c>
+      <c r="H13">
+        <v>82</v>
+      </c>
+      <c r="I13">
+        <v>82</v>
+      </c>
+      <c r="J13">
+        <v>91</v>
+      </c>
+      <c r="K13">
+        <v>87</v>
+      </c>
+      <c r="L13">
+        <v>86</v>
+      </c>
+      <c r="M13">
+        <v>85</v>
+      </c>
+      <c r="N13">
+        <v>84</v>
+      </c>
+      <c r="O13">
+        <v>84</v>
+      </c>
+      <c r="P13">
+        <v>86</v>
+      </c>
+      <c r="Q13">
+        <v>82</v>
+      </c>
+      <c r="R13">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
